--- a/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
+++ b/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498D4C57-462B-4C23-84BC-D5F761EA77C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB40FCC-CA04-4325-827E-D444AFA13129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -229,6 +229,12 @@
   <si>
     <t>再レビュー</t>
     <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>作成完了</t>
+  </si>
+  <si>
+    <t>作成中</t>
   </si>
 </sst>
 </file>
@@ -740,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,9 +843,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +860,81 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,80 +954,23 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,8 +1190,8 @@
   <dimension ref="A1:AP1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B47"/>
+      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1277,266 +1298,266 @@
       <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="55" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="39">
+      <c r="G3" s="63">
         <v>45629</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-      <c r="AP3" s="41"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="65"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="54" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="44"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="68"/>
     </row>
     <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="45">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="57">
         <v>3</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="45">
+      <c r="H5" s="58"/>
+      <c r="I5" s="57">
         <v>4</v>
       </c>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45">
+      <c r="J5" s="58"/>
+      <c r="K5" s="57">
         <v>5</v>
       </c>
-      <c r="L5" s="46"/>
-      <c r="M5" s="45">
+      <c r="L5" s="58"/>
+      <c r="M5" s="57">
         <v>6</v>
       </c>
-      <c r="N5" s="46"/>
-      <c r="O5" s="45">
+      <c r="N5" s="58"/>
+      <c r="O5" s="57">
         <v>7</v>
       </c>
-      <c r="P5" s="46"/>
-      <c r="Q5" s="45">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="57">
         <v>8</v>
       </c>
-      <c r="R5" s="46"/>
-      <c r="S5" s="45">
+      <c r="R5" s="58"/>
+      <c r="S5" s="57">
         <v>9</v>
       </c>
-      <c r="T5" s="46"/>
-      <c r="U5" s="45">
+      <c r="T5" s="58"/>
+      <c r="U5" s="57">
         <v>10</v>
       </c>
-      <c r="V5" s="46"/>
-      <c r="W5" s="45">
+      <c r="V5" s="58"/>
+      <c r="W5" s="57">
         <v>11</v>
       </c>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45">
+      <c r="X5" s="58"/>
+      <c r="Y5" s="57">
         <v>12</v>
       </c>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45">
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="57">
         <v>13</v>
       </c>
-      <c r="AB5" s="46"/>
-      <c r="AC5" s="45">
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="57">
         <v>14</v>
       </c>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="45">
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="57">
         <v>15</v>
       </c>
-      <c r="AF5" s="46"/>
-      <c r="AG5" s="45">
+      <c r="AF5" s="58"/>
+      <c r="AG5" s="57">
         <v>16</v>
       </c>
-      <c r="AH5" s="46"/>
-      <c r="AI5" s="45">
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="57">
         <v>17</v>
       </c>
-      <c r="AJ5" s="46"/>
-      <c r="AK5" s="45">
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="57">
         <v>18</v>
       </c>
-      <c r="AL5" s="46"/>
-      <c r="AM5" s="45">
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="57">
         <v>19</v>
       </c>
-      <c r="AN5" s="46"/>
-      <c r="AO5" s="45">
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="57">
         <v>20</v>
       </c>
-      <c r="AP5" s="46"/>
+      <c r="AP5" s="58"/>
     </row>
     <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="45" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="45" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="46"/>
-      <c r="K6" s="45" t="s">
+      <c r="J6" s="58"/>
+      <c r="K6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="46"/>
-      <c r="M6" s="45" t="s">
+      <c r="L6" s="58"/>
+      <c r="M6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="46"/>
-      <c r="O6" s="45" t="s">
+      <c r="N6" s="58"/>
+      <c r="O6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="45" t="s">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="45" t="s">
+      <c r="R6" s="58"/>
+      <c r="S6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="46"/>
-      <c r="U6" s="45" t="s">
+      <c r="T6" s="58"/>
+      <c r="U6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="46"/>
-      <c r="W6" s="45" t="s">
+      <c r="V6" s="58"/>
+      <c r="W6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="46"/>
-      <c r="Y6" s="45" t="s">
+      <c r="X6" s="58"/>
+      <c r="Y6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="45" t="s">
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="45" t="s">
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="45" t="s">
+      <c r="AD6" s="58"/>
+      <c r="AE6" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="45" t="s">
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="45" t="s">
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="46"/>
-      <c r="AK6" s="45" t="s">
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="46"/>
-      <c r="AM6" s="45" t="s">
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="46"/>
-      <c r="AO6" s="45" t="s">
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="46"/>
+      <c r="AP6" s="58"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -1585,13 +1606,13 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1">
-      <c r="A8" s="49">
+      <c r="A8" s="42">
         <v>1</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1633,11 +1654,11 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
       <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1679,13 +1700,13 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="49">
+      <c r="A10" s="42">
         <v>2</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1727,11 +1748,11 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="12" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
@@ -1773,13 +1794,13 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12" customHeight="1">
-      <c r="A12" s="49">
+      <c r="A12" s="42">
         <v>3</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
       <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1821,11 +1842,11 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:42" ht="12" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
@@ -1867,13 +1888,13 @@
       <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="1:42" ht="12" customHeight="1">
-      <c r="A14" s="49">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1915,11 +1936,11 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="12" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1961,13 +1982,13 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="42">
         <v>5</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2009,11 +2030,11 @@
       <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:42" ht="12" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
       <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2055,13 +2076,13 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="1:42" ht="12" customHeight="1">
-      <c r="A18" s="49">
+      <c r="A18" s="42">
         <v>6</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2103,11 +2124,11 @@
       <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
@@ -2149,13 +2170,13 @@
       <c r="AP19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="12" customHeight="1">
-      <c r="A20" s="49">
+      <c r="A20" s="42">
         <v>7</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2197,11 +2218,11 @@
       <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:42" ht="12" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
       <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
@@ -2243,13 +2264,13 @@
       <c r="AP21" s="25"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="42">
         <v>8</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2291,11 +2312,11 @@
       <c r="AP22" s="20"/>
     </row>
     <row r="23" spans="1:42" ht="12" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
       <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
@@ -2383,37 +2404,37 @@
       <c r="AP24" s="13"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
-      <c r="A25" s="67">
+      <c r="A25" s="47">
         <v>1</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="49">
         <v>8</v>
       </c>
-      <c r="D25" s="63" t="s">
+      <c r="D25" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="33"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="32"/>
       <c r="T25" s="31"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
@@ -2439,11 +2460,11 @@
       <c r="AP25" s="20"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
@@ -2454,14 +2475,14 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="26"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
@@ -2485,36 +2506,36 @@
       <c r="AP26" s="25"/>
     </row>
     <row r="27" spans="1:42" ht="12" customHeight="1">
-      <c r="A27" s="67">
+      <c r="A27" s="47">
         <v>2</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="63">
+      <c r="C27" s="49">
         <v>16</v>
       </c>
-      <c r="D27" s="63" t="s">
+      <c r="D27" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="63" t="s">
+      <c r="E27" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="21"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="70"/>
       <c r="S27" s="22"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
@@ -2541,11 +2562,11 @@
       <c r="AP27" s="20"/>
     </row>
     <row r="28" spans="1:42" ht="12" customHeight="1">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
@@ -2556,11 +2577,11 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="26"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="24"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
@@ -2587,36 +2608,36 @@
       <c r="AP28" s="25"/>
     </row>
     <row r="29" spans="1:42" ht="12" customHeight="1">
-      <c r="A29" s="67">
+      <c r="A29" s="47">
         <v>3</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="63">
+      <c r="C29" s="49">
         <v>24</v>
       </c>
-      <c r="D29" s="63" t="s">
+      <c r="D29" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="63" t="s">
+      <c r="E29" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="21"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="70"/>
       <c r="S29" s="22"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -2643,11 +2664,11 @@
       <c r="AP29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="12" customHeight="1">
-      <c r="A30" s="64"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2659,10 +2680,10 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="26"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="72"/>
       <c r="S30" s="24"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
@@ -2689,17 +2710,17 @@
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="1:42" ht="12" customHeight="1">
-      <c r="A31" s="67">
+      <c r="A31" s="47">
         <v>4</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -2712,11 +2733,11 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="32"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="74"/>
       <c r="S31" s="22"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -2743,11 +2764,11 @@
       <c r="AP31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="12" customHeight="1">
-      <c r="A32" s="64"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="65"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="23" t="s">
         <v>14</v>
       </c>
@@ -2759,10 +2780,10 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="28"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="25"/>
-      <c r="R32" s="26"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="72"/>
       <c r="S32" s="24"/>
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
@@ -2789,17 +2810,17 @@
       <c r="AP32" s="25"/>
     </row>
     <row r="33" spans="1:42" ht="12" customHeight="1">
-      <c r="A33" s="67">
+      <c r="A33" s="47">
         <v>5</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63" t="s">
+      <c r="C33" s="49"/>
+      <c r="D33" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -2812,11 +2833,11 @@
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="21"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="69"/>
+      <c r="R33" s="70"/>
       <c r="S33" s="22"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -2843,11 +2864,11 @@
       <c r="AP33" s="20"/>
     </row>
     <row r="34" spans="1:42" ht="12" customHeight="1">
-      <c r="A34" s="64"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="50"/>
       <c r="F34" s="23" t="s">
         <v>14</v>
       </c>
@@ -2859,10 +2880,10 @@
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="28"/>
-      <c r="O34" s="25"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="26"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="72"/>
       <c r="S34" s="24"/>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
@@ -2889,17 +2910,17 @@
       <c r="AP34" s="25"/>
     </row>
     <row r="35" spans="1:42" ht="12" customHeight="1">
-      <c r="A35" s="67">
+      <c r="A35" s="47">
         <v>6</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63" t="s">
+      <c r="C35" s="49"/>
+      <c r="D35" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -2912,11 +2933,11 @@
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="21"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="69"/>
+      <c r="P35" s="69"/>
+      <c r="Q35" s="69"/>
+      <c r="R35" s="70"/>
       <c r="S35" s="22"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
@@ -2943,11 +2964,11 @@
       <c r="AP35" s="20"/>
     </row>
     <row r="36" spans="1:42" ht="12" customHeight="1">
-      <c r="A36" s="64"/>
-      <c r="B36" s="64"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="50"/>
       <c r="F36" s="23" t="s">
         <v>14</v>
       </c>
@@ -2959,10 +2980,10 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="25"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="26"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="72"/>
       <c r="S36" s="24"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
@@ -2989,19 +3010,19 @@
       <c r="AP36" s="25"/>
     </row>
     <row r="37" spans="1:42" ht="12" customHeight="1">
-      <c r="A37" s="67">
+      <c r="A37" s="47">
         <v>7</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="63">
+      <c r="C37" s="49">
         <v>24</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -3014,11 +3035,11 @@
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="21"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="69"/>
+      <c r="P37" s="69"/>
+      <c r="Q37" s="69"/>
+      <c r="R37" s="70"/>
       <c r="S37" s="22"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
@@ -3045,11 +3066,11 @@
       <c r="AP37" s="20"/>
     </row>
     <row r="38" spans="1:42" ht="12" customHeight="1">
-      <c r="A38" s="64"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="65"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
@@ -3061,10 +3082,10 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="25"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="26"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="24"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
@@ -3091,17 +3112,17 @@
       <c r="AP38" s="25"/>
     </row>
     <row r="39" spans="1:42" ht="12" customHeight="1">
-      <c r="A39" s="67">
+      <c r="A39" s="47">
         <v>8</v>
       </c>
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3114,11 +3135,11 @@
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="21"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="69"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="70"/>
       <c r="S39" s="22"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
@@ -3145,11 +3166,11 @@
       <c r="AP39" s="20"/>
     </row>
     <row r="40" spans="1:42" ht="12" customHeight="1">
-      <c r="A40" s="64"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="50"/>
       <c r="F40" s="23" t="s">
         <v>14</v>
       </c>
@@ -3161,10 +3182,10 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="28"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="25"/>
-      <c r="R40" s="26"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="72"/>
       <c r="S40" s="24"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
@@ -3237,17 +3258,19 @@
       <c r="AP41" s="13"/>
     </row>
     <row r="42" spans="1:42" ht="12" customHeight="1">
-      <c r="A42" s="49">
+      <c r="A42" s="42">
         <v>1</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47" t="s">
+      <c r="C42" s="44"/>
+      <c r="D42" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F42" s="17" t="s">
         <v>13</v>
       </c>
@@ -3259,11 +3282,11 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="38"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="69"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="37"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
@@ -3289,11 +3312,11 @@
       <c r="AP42" s="20"/>
     </row>
     <row r="43" spans="1:42" ht="12" customHeight="1">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
@@ -3305,11 +3328,11 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="24"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="27"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
@@ -3335,17 +3358,19 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1">
-      <c r="A44" s="49">
+      <c r="A44" s="42">
         <v>2</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47" t="s">
+      <c r="C44" s="44"/>
+      <c r="D44" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
@@ -3357,13 +3382,13 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="21"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="70"/>
       <c r="S44" s="22"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
@@ -3387,11 +3412,11 @@
       <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:42" ht="12" customHeight="1">
-      <c r="A45" s="48"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
       <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
@@ -3403,12 +3428,12 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="26"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="72"/>
       <c r="S45" s="24"/>
-      <c r="T45" s="25"/>
+      <c r="T45" s="28"/>
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
       <c r="W45" s="25"/>
@@ -3433,17 +3458,19 @@
       <c r="AP45" s="25"/>
     </row>
     <row r="46" spans="1:42" ht="12" customHeight="1">
-      <c r="A46" s="49">
+      <c r="A46" s="42">
         <v>3</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F46" s="17" t="s">
         <v>13</v>
       </c>
@@ -3455,14 +3482,14 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="21"/>
+      <c r="O46" s="69"/>
+      <c r="P46" s="69"/>
+      <c r="Q46" s="69"/>
+      <c r="R46" s="70"/>
       <c r="S46" s="22"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="35"/>
+      <c r="V46" s="34"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
@@ -3485,11 +3512,11 @@
       <c r="AP46" s="20"/>
     </row>
     <row r="47" spans="1:42" ht="12" customHeight="1">
-      <c r="A47" s="48"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
@@ -3501,12 +3528,12 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
       <c r="N47" s="28"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="26"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="72"/>
       <c r="S47" s="24"/>
-      <c r="T47" s="25"/>
+      <c r="T47" s="28"/>
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
       <c r="W47" s="25"/>
@@ -3531,17 +3558,19 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:42" ht="12" customHeight="1">
-      <c r="A48" s="49">
+      <c r="A48" s="42">
         <v>4</v>
       </c>
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47" t="s">
+      <c r="C48" s="44"/>
+      <c r="D48" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="44" t="s">
+        <v>44</v>
+      </c>
       <c r="F48" s="17" t="s">
         <v>13</v>
       </c>
@@ -3553,16 +3582,16 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="21"/>
+      <c r="O48" s="69"/>
+      <c r="P48" s="69"/>
+      <c r="Q48" s="69"/>
+      <c r="R48" s="70"/>
       <c r="S48" s="22"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="34"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
@@ -3583,11 +3612,11 @@
       <c r="AP48" s="20"/>
     </row>
     <row r="49" spans="1:42" ht="12" customHeight="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
@@ -3599,12 +3628,12 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="28"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="26"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="72"/>
       <c r="S49" s="24"/>
-      <c r="T49" s="25"/>
+      <c r="T49" s="28"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
       <c r="W49" s="25"/>
@@ -3629,17 +3658,19 @@
       <c r="AP49" s="25"/>
     </row>
     <row r="50" spans="1:42" ht="12" customHeight="1">
-      <c r="A50" s="49">
+      <c r="A50" s="42">
         <v>5</v>
       </c>
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47" t="s">
+      <c r="C50" s="44"/>
+      <c r="D50" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="44" t="s">
+        <v>45</v>
+      </c>
       <c r="F50" s="17" t="s">
         <v>13</v>
       </c>
@@ -3651,18 +3682,18 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="21"/>
+      <c r="O50" s="69"/>
+      <c r="P50" s="69"/>
+      <c r="Q50" s="69"/>
+      <c r="R50" s="70"/>
       <c r="S50" s="22"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
+      <c r="Y50" s="34"/>
+      <c r="Z50" s="34"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
@@ -3681,11 +3712,11 @@
       <c r="AP50" s="20"/>
     </row>
     <row r="51" spans="1:42" ht="12" customHeight="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
       <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
@@ -3697,12 +3728,12 @@
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
       <c r="N51" s="28"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="26"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="72"/>
       <c r="S51" s="24"/>
-      <c r="T51" s="25"/>
+      <c r="T51" s="28"/>
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
       <c r="W51" s="25"/>
@@ -3727,17 +3758,17 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:42" ht="12" customHeight="1">
-      <c r="A52" s="49">
+      <c r="A52" s="42">
         <v>6</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47" t="s">
+      <c r="C52" s="44"/>
+      <c r="D52" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="44"/>
       <c r="F52" s="17" t="s">
         <v>13</v>
       </c>
@@ -3749,10 +3780,10 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="21"/>
+      <c r="O52" s="69"/>
+      <c r="P52" s="69"/>
+      <c r="Q52" s="69"/>
+      <c r="R52" s="70"/>
       <c r="S52" s="22"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
@@ -3779,11 +3810,11 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="1:42" ht="12" customHeight="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
       <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
@@ -3795,10 +3826,10 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="26"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="72"/>
       <c r="S53" s="24"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
@@ -3825,17 +3856,17 @@
       <c r="AP53" s="25"/>
     </row>
     <row r="54" spans="1:42" ht="12" customHeight="1">
-      <c r="A54" s="49">
+      <c r="A54" s="42">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47" t="s">
+      <c r="C54" s="44"/>
+      <c r="D54" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="44"/>
       <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
@@ -3847,18 +3878,18 @@
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="21"/>
+      <c r="O54" s="69"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="69"/>
+      <c r="R54" s="70"/>
       <c r="S54" s="22"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
@@ -3877,11 +3908,11 @@
       <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="1:42" ht="12" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
@@ -3893,10 +3924,10 @@
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
-      <c r="O55" s="25"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="26"/>
+      <c r="O55" s="71"/>
+      <c r="P55" s="71"/>
+      <c r="Q55" s="71"/>
+      <c r="R55" s="72"/>
       <c r="S55" s="24"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
@@ -3923,17 +3954,17 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:42" ht="12" customHeight="1">
-      <c r="A56" s="49">
+      <c r="A56" s="42">
         <v>6</v>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="47"/>
+      <c r="E56" s="44"/>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
@@ -3945,10 +3976,10 @@
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="21"/>
+      <c r="O56" s="69"/>
+      <c r="P56" s="69"/>
+      <c r="Q56" s="69"/>
+      <c r="R56" s="70"/>
       <c r="S56" s="22"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
@@ -3975,11 +4006,11 @@
       <c r="AP56" s="20"/>
     </row>
     <row r="57" spans="1:42" ht="12" customHeight="1">
-      <c r="A57" s="48"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
       <c r="F57" s="23" t="s">
         <v>14</v>
       </c>
@@ -3991,10 +4022,10 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
-      <c r="O57" s="25"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="25"/>
-      <c r="R57" s="26"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="72"/>
       <c r="S57" s="24"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
@@ -4067,15 +4098,15 @@
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="12" customHeight="1">
-      <c r="A59" s="49">
+      <c r="A59" s="42">
         <v>1</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
@@ -4105,10 +4136,10 @@
       <c r="AD59" s="20"/>
       <c r="AE59" s="20"/>
       <c r="AF59" s="20"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-      <c r="AJ59" s="35"/>
+      <c r="AG59" s="34"/>
+      <c r="AH59" s="34"/>
+      <c r="AI59" s="34"/>
+      <c r="AJ59" s="34"/>
       <c r="AK59" s="20"/>
       <c r="AL59" s="20"/>
       <c r="AM59" s="20"/>
@@ -4117,11 +4148,11 @@
       <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:42" ht="12" customHeight="1">
-      <c r="A60" s="66"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
       <c r="F60" s="23" t="s">
         <v>14</v>
       </c>
@@ -4163,15 +4194,15 @@
       <c r="AP60" s="25"/>
     </row>
     <row r="61" spans="1:42" ht="12" customHeight="1">
-      <c r="A61" s="49">
+      <c r="A61" s="42">
         <v>2</v>
       </c>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
@@ -4201,10 +4232,10 @@
       <c r="AD61" s="20"/>
       <c r="AE61" s="20"/>
       <c r="AF61" s="20"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="35"/>
-      <c r="AJ61" s="35"/>
+      <c r="AG61" s="34"/>
+      <c r="AH61" s="34"/>
+      <c r="AI61" s="34"/>
+      <c r="AJ61" s="34"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="20"/>
       <c r="AM61" s="20"/>
@@ -4213,11 +4244,11 @@
       <c r="AP61" s="20"/>
     </row>
     <row r="62" spans="1:42" ht="12" customHeight="1">
-      <c r="A62" s="48"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="48"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
       <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
@@ -4259,15 +4290,15 @@
       <c r="AP62" s="25"/>
     </row>
     <row r="63" spans="1:42" ht="12" customHeight="1">
-      <c r="A63" s="49">
+      <c r="A63" s="42">
         <v>3</v>
       </c>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
@@ -4301,19 +4332,19 @@
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
       <c r="AJ63" s="20"/>
-      <c r="AK63" s="35"/>
-      <c r="AL63" s="35"/>
-      <c r="AM63" s="35"/>
-      <c r="AN63" s="35"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="34"/>
+      <c r="AM63" s="34"/>
+      <c r="AN63" s="34"/>
       <c r="AO63" s="20"/>
       <c r="AP63" s="20"/>
     </row>
     <row r="64" spans="1:42" ht="12" customHeight="1">
-      <c r="A64" s="48"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
       <c r="F64" s="23" t="s">
         <v>14</v>
       </c>
@@ -4355,13 +4386,13 @@
       <c r="AP64" s="25"/>
     </row>
     <row r="65" spans="1:42" ht="12" customHeight="1">
-      <c r="A65" s="49">
+      <c r="A65" s="42">
         <v>4</v>
       </c>
-      <c r="B65" s="47"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
       <c r="F65" s="17" t="s">
         <v>13</v>
       </c>
@@ -4403,11 +4434,11 @@
       <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:42" ht="12" customHeight="1">
-      <c r="A66" s="48"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
       <c r="F66" s="23" t="s">
         <v>14</v>
       </c>
@@ -4449,13 +4480,13 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="1:42" ht="12" customHeight="1">
-      <c r="A67" s="49">
+      <c r="A67" s="42">
         <v>5</v>
       </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
@@ -4497,11 +4528,11 @@
       <c r="AP67" s="20"/>
     </row>
     <row r="68" spans="1:42" ht="12" customHeight="1">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
       <c r="F68" s="23" t="s">
         <v>14</v>
       </c>
@@ -4543,13 +4574,13 @@
       <c r="AP68" s="25"/>
     </row>
     <row r="69" spans="1:42" ht="12" customHeight="1">
-      <c r="A69" s="49">
+      <c r="A69" s="42">
         <v>6</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
@@ -4591,11 +4622,11 @@
       <c r="AP69" s="20"/>
     </row>
     <row r="70" spans="1:42" ht="12" customHeight="1">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
       <c r="F70" s="23" t="s">
         <v>14</v>
       </c>
@@ -4683,13 +4714,13 @@
       <c r="AP71" s="13"/>
     </row>
     <row r="72" spans="1:42" ht="12" customHeight="1">
-      <c r="A72" s="49">
+      <c r="A72" s="42">
         <v>1</v>
       </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
       <c r="F72" s="17" t="s">
         <v>13</v>
       </c>
@@ -4731,11 +4762,11 @@
       <c r="AP72" s="20"/>
     </row>
     <row r="73" spans="1:42" ht="12" customHeight="1">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
@@ -4777,13 +4808,13 @@
       <c r="AP73" s="25"/>
     </row>
     <row r="74" spans="1:42" ht="12" customHeight="1">
-      <c r="A74" s="49">
+      <c r="A74" s="42">
         <v>2</v>
       </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
@@ -4825,11 +4856,11 @@
       <c r="AP74" s="20"/>
     </row>
     <row r="75" spans="1:42" ht="12" customHeight="1">
-      <c r="A75" s="48"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
       <c r="F75" s="23" t="s">
         <v>14</v>
       </c>
@@ -4871,13 +4902,13 @@
       <c r="AP75" s="25"/>
     </row>
     <row r="76" spans="1:42" ht="12" customHeight="1">
-      <c r="A76" s="49">
+      <c r="A76" s="42">
         <v>3</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
@@ -4919,11 +4950,11 @@
       <c r="AP76" s="20"/>
     </row>
     <row r="77" spans="1:42" ht="12" customHeight="1">
-      <c r="A77" s="48"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
       <c r="F77" s="23" t="s">
         <v>14</v>
       </c>
@@ -4965,13 +4996,13 @@
       <c r="AP77" s="25"/>
     </row>
     <row r="78" spans="1:42" ht="12" customHeight="1">
-      <c r="A78" s="49">
+      <c r="A78" s="42">
         <v>4</v>
       </c>
-      <c r="B78" s="47"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="47"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
@@ -5013,11 +5044,11 @@
       <c r="AP78" s="20"/>
     </row>
     <row r="79" spans="1:42" ht="12" customHeight="1">
-      <c r="A79" s="48"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="48"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
       <c r="F79" s="23" t="s">
         <v>14</v>
       </c>
@@ -5059,13 +5090,13 @@
       <c r="AP79" s="25"/>
     </row>
     <row r="80" spans="1:42" ht="12" customHeight="1">
-      <c r="A80" s="49">
+      <c r="A80" s="42">
         <v>5</v>
       </c>
-      <c r="B80" s="47"/>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
-      <c r="E80" s="47"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
       <c r="F80" s="17" t="s">
         <v>13</v>
       </c>
@@ -5107,11 +5138,11 @@
       <c r="AP80" s="20"/>
     </row>
     <row r="81" spans="1:42" ht="12" customHeight="1">
-      <c r="A81" s="48"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
       <c r="F81" s="23" t="s">
         <v>14</v>
       </c>
@@ -5153,13 +5184,13 @@
       <c r="AP81" s="25"/>
     </row>
     <row r="82" spans="1:42" ht="12" customHeight="1">
-      <c r="A82" s="49">
+      <c r="A82" s="42">
         <v>6</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
       <c r="F82" s="17" t="s">
         <v>13</v>
       </c>
@@ -5201,11 +5232,11 @@
       <c r="AP82" s="20"/>
     </row>
     <row r="83" spans="1:42" ht="12" customHeight="1">
-      <c r="A83" s="48"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="48"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="23" t="s">
         <v>14</v>
       </c>
@@ -5291,13 +5322,13 @@
       <c r="AP84" s="13"/>
     </row>
     <row r="85" spans="1:42" ht="12" customHeight="1">
-      <c r="A85" s="49">
+      <c r="A85" s="42">
         <v>1</v>
       </c>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
       <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
@@ -5339,11 +5370,11 @@
       <c r="AP85" s="20"/>
     </row>
     <row r="86" spans="1:42" ht="12" customHeight="1">
-      <c r="A86" s="48"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
       <c r="F86" s="23" t="s">
         <v>14</v>
       </c>
@@ -5385,13 +5416,13 @@
       <c r="AP86" s="25"/>
     </row>
     <row r="87" spans="1:42" ht="12" customHeight="1">
-      <c r="A87" s="49">
+      <c r="A87" s="42">
         <v>2</v>
       </c>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
       <c r="F87" s="17" t="s">
         <v>13</v>
       </c>
@@ -5433,11 +5464,11 @@
       <c r="AP87" s="20"/>
     </row>
     <row r="88" spans="1:42" ht="12" customHeight="1">
-      <c r="A88" s="48"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="48"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
       <c r="F88" s="23" t="s">
         <v>14</v>
       </c>
@@ -5479,13 +5510,13 @@
       <c r="AP88" s="25"/>
     </row>
     <row r="89" spans="1:42" ht="12" customHeight="1">
-      <c r="A89" s="49">
+      <c r="A89" s="42">
         <v>3</v>
       </c>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
       <c r="F89" s="17" t="s">
         <v>13</v>
       </c>
@@ -5527,11 +5558,11 @@
       <c r="AP89" s="20"/>
     </row>
     <row r="90" spans="1:42" ht="12" customHeight="1">
-      <c r="A90" s="48"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="48"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
       <c r="F90" s="23" t="s">
         <v>14</v>
       </c>
@@ -5573,13 +5604,13 @@
       <c r="AP90" s="25"/>
     </row>
     <row r="91" spans="1:42" ht="12" customHeight="1">
-      <c r="A91" s="49">
+      <c r="A91" s="42">
         <v>4</v>
       </c>
-      <c r="B91" s="47"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
@@ -5621,11 +5652,11 @@
       <c r="AP91" s="20"/>
     </row>
     <row r="92" spans="1:42" ht="12" customHeight="1">
-      <c r="A92" s="48"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="48"/>
+      <c r="A92" s="43"/>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
       <c r="F92" s="23" t="s">
         <v>14</v>
       </c>
@@ -45972,69 +46003,152 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="G3:AP4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C33:C34"/>
@@ -46059,6 +46173,70 @@
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
     <mergeCell ref="D46:D47"/>
     <mergeCell ref="E46:E47"/>
     <mergeCell ref="D48:D49"/>
@@ -46068,153 +46246,6 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G3:AP4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
+++ b/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB40FCC-CA04-4325-827E-D444AFA13129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473207AA-F5F0-4D5A-AA4A-ACC1E91B0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -873,68 +873,23 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,23 +909,68 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,8 +1190,8 @@
   <dimension ref="A1:AP1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V46" sqref="V46"/>
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1298,266 +1298,266 @@
       <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="63">
+      <c r="G3" s="48">
         <v>45629</v>
       </c>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="50"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="68"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="53"/>
     </row>
     <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="57">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="54">
         <v>3</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="57">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54">
         <v>4</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="57">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54">
         <v>5</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="57">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54">
         <v>6</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="57">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54">
         <v>7</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="57">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54">
         <v>8</v>
       </c>
-      <c r="R5" s="58"/>
-      <c r="S5" s="57">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54">
         <v>9</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="57">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54">
         <v>10</v>
       </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="57">
+      <c r="V5" s="55"/>
+      <c r="W5" s="54">
         <v>11</v>
       </c>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="57">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="54">
         <v>12</v>
       </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="57">
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="54">
         <v>13</v>
       </c>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="57">
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="54">
         <v>14</v>
       </c>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="57">
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="54">
         <v>15</v>
       </c>
-      <c r="AF5" s="58"/>
-      <c r="AG5" s="57">
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="54">
         <v>16</v>
       </c>
-      <c r="AH5" s="58"/>
-      <c r="AI5" s="57">
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="54">
         <v>17</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="57">
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="54">
         <v>18</v>
       </c>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="57">
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="54">
         <v>19</v>
       </c>
-      <c r="AN5" s="58"/>
-      <c r="AO5" s="57">
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="54">
         <v>20</v>
       </c>
-      <c r="AP5" s="58"/>
+      <c r="AP5" s="55"/>
     </row>
     <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="57" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="57" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="57" t="s">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="58"/>
-      <c r="M6" s="57" t="s">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="58"/>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="57" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="58"/>
-      <c r="S6" s="57" t="s">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="58"/>
-      <c r="U6" s="57" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="58"/>
-      <c r="W6" s="57" t="s">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="57" t="s">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="57" t="s">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="57" t="s">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="58"/>
-      <c r="AE6" s="57" t="s">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="58"/>
-      <c r="AG6" s="57" t="s">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="58"/>
-      <c r="AI6" s="57" t="s">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="58"/>
-      <c r="AK6" s="57" t="s">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="57" t="s">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="58"/>
-      <c r="AO6" s="57" t="s">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="58"/>
+      <c r="AP6" s="55"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -1606,13 +1606,13 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1">
-      <c r="A8" s="42">
+      <c r="A8" s="58">
         <v>1</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1654,11 +1654,11 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1700,13 +1700,13 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="42">
+      <c r="A10" s="58">
         <v>2</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1748,11 +1748,11 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="12" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
@@ -1794,13 +1794,13 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12" customHeight="1">
-      <c r="A12" s="42">
+      <c r="A12" s="58">
         <v>3</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1842,11 +1842,11 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:42" ht="12" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
@@ -1888,13 +1888,13 @@
       <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="1:42" ht="12" customHeight="1">
-      <c r="A14" s="42">
+      <c r="A14" s="58">
         <v>4</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1936,11 +1936,11 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="12" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1982,13 +1982,13 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12" customHeight="1">
-      <c r="A16" s="42">
+      <c r="A16" s="58">
         <v>5</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2030,11 +2030,11 @@
       <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:42" ht="12" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2076,13 +2076,13 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="1:42" ht="12" customHeight="1">
-      <c r="A18" s="42">
+      <c r="A18" s="58">
         <v>6</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2124,11 +2124,11 @@
       <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
@@ -2170,13 +2170,13 @@
       <c r="AP19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="12" customHeight="1">
-      <c r="A20" s="42">
+      <c r="A20" s="58">
         <v>7</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2218,11 +2218,11 @@
       <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:42" ht="12" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
@@ -2264,13 +2264,13 @@
       <c r="AP21" s="25"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1">
-      <c r="A22" s="42">
+      <c r="A22" s="58">
         <v>8</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2312,11 +2312,11 @@
       <c r="AP22" s="20"/>
     </row>
     <row r="23" spans="1:42" ht="12" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
@@ -2404,19 +2404,19 @@
       <c r="AP24" s="13"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
-      <c r="A25" s="47">
+      <c r="A25" s="62">
         <v>1</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49">
+      <c r="C25" s="59">
         <v>8</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2430,10 +2430,10 @@
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="69"/>
-      <c r="P25" s="69"/>
-      <c r="Q25" s="69"/>
-      <c r="R25" s="70"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="43"/>
       <c r="S25" s="32"/>
       <c r="T25" s="31"/>
       <c r="U25" s="20"/>
@@ -2460,11 +2460,11 @@
       <c r="AP25" s="20"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
@@ -2476,10 +2476,10 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
       <c r="N26" s="40"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="72"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
       <c r="S26" s="24"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
@@ -2506,19 +2506,19 @@
       <c r="AP26" s="25"/>
     </row>
     <row r="27" spans="1:42" ht="12" customHeight="1">
-      <c r="A27" s="47">
+      <c r="A27" s="62">
         <v>2</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="59">
         <v>16</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -2532,10 +2532,10 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
       <c r="N27" s="38"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="70"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="43"/>
       <c r="S27" s="22"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
@@ -2562,11 +2562,11 @@
       <c r="AP27" s="20"/>
     </row>
     <row r="28" spans="1:42" ht="12" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
@@ -2578,10 +2578,10 @@
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
       <c r="N28" s="40"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="72"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="45"/>
       <c r="S28" s="24"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
@@ -2608,19 +2608,19 @@
       <c r="AP28" s="25"/>
     </row>
     <row r="29" spans="1:42" ht="12" customHeight="1">
-      <c r="A29" s="47">
+      <c r="A29" s="62">
         <v>3</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="49">
+      <c r="C29" s="59">
         <v>24</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -2634,10 +2634,10 @@
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
       <c r="N29" s="36"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="69"/>
-      <c r="R29" s="70"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="43"/>
       <c r="S29" s="22"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -2664,11 +2664,11 @@
       <c r="AP29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="12" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2680,10 +2680,10 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="72"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
       <c r="S30" s="24"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
@@ -2710,17 +2710,17 @@
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="1:42" ht="12" customHeight="1">
-      <c r="A31" s="47">
+      <c r="A31" s="62">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -2734,10 +2734,10 @@
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
       <c r="N31" s="41"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="74"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="47"/>
       <c r="S31" s="22"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -2764,11 +2764,11 @@
       <c r="AP31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="12" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="50"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="23" t="s">
         <v>14</v>
       </c>
@@ -2780,10 +2780,10 @@
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
       <c r="N32" s="28"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="72"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="45"/>
       <c r="S32" s="24"/>
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
@@ -2810,17 +2810,17 @@
       <c r="AP32" s="25"/>
     </row>
     <row r="33" spans="1:42" ht="12" customHeight="1">
-      <c r="A33" s="47">
+      <c r="A33" s="62">
         <v>5</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -2834,10 +2834,10 @@
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="39"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="70"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="43"/>
       <c r="S33" s="22"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -2864,11 +2864,11 @@
       <c r="AP33" s="20"/>
     </row>
     <row r="34" spans="1:42" ht="12" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="50"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="23" t="s">
         <v>14</v>
       </c>
@@ -2880,10 +2880,10 @@
       <c r="L34" s="25"/>
       <c r="M34" s="25"/>
       <c r="N34" s="28"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="72"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
       <c r="S34" s="24"/>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
@@ -2910,17 +2910,17 @@
       <c r="AP34" s="25"/>
     </row>
     <row r="35" spans="1:42" ht="12" customHeight="1">
-      <c r="A35" s="47">
+      <c r="A35" s="62">
         <v>6</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="49" t="s">
+      <c r="E35" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -2934,10 +2934,10 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="39"/>
-      <c r="O35" s="69"/>
-      <c r="P35" s="69"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="70"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="43"/>
       <c r="S35" s="22"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
@@ -2964,11 +2964,11 @@
       <c r="AP35" s="20"/>
     </row>
     <row r="36" spans="1:42" ht="12" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="50"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="23" t="s">
         <v>14</v>
       </c>
@@ -2980,10 +2980,10 @@
       <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="72"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="45"/>
       <c r="S36" s="24"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
@@ -3010,19 +3010,19 @@
       <c r="AP36" s="25"/>
     </row>
     <row r="37" spans="1:42" ht="12" customHeight="1">
-      <c r="A37" s="47">
+      <c r="A37" s="62">
         <v>7</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="49">
+      <c r="C37" s="59">
         <v>24</v>
       </c>
-      <c r="D37" s="49" t="s">
+      <c r="D37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="49" t="s">
+      <c r="E37" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -3036,10 +3036,10 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="39"/>
-      <c r="O37" s="69"/>
-      <c r="P37" s="69"/>
-      <c r="Q37" s="69"/>
-      <c r="R37" s="70"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="43"/>
       <c r="S37" s="22"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
@@ -3066,11 +3066,11 @@
       <c r="AP37" s="20"/>
     </row>
     <row r="38" spans="1:42" ht="12" customHeight="1">
-      <c r="A38" s="48"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="50"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
@@ -3082,10 +3082,10 @@
       <c r="L38" s="25"/>
       <c r="M38" s="25"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="72"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="45"/>
       <c r="S38" s="24"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
@@ -3112,17 +3112,17 @@
       <c r="AP38" s="25"/>
     </row>
     <row r="39" spans="1:42" ht="12" customHeight="1">
-      <c r="A39" s="47">
+      <c r="A39" s="62">
         <v>8</v>
       </c>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3136,10 +3136,10 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="39"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="70"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="43"/>
       <c r="S39" s="22"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
@@ -3166,11 +3166,11 @@
       <c r="AP39" s="20"/>
     </row>
     <row r="40" spans="1:42" ht="12" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="50"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="23" t="s">
         <v>14</v>
       </c>
@@ -3182,10 +3182,10 @@
       <c r="L40" s="25"/>
       <c r="M40" s="25"/>
       <c r="N40" s="28"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="72"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
       <c r="S40" s="24"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
@@ -3258,17 +3258,17 @@
       <c r="AP41" s="13"/>
     </row>
     <row r="42" spans="1:42" ht="12" customHeight="1">
-      <c r="A42" s="42">
+      <c r="A42" s="58">
         <v>1</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="44" t="s">
+      <c r="E42" s="56" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="17" t="s">
@@ -3282,10 +3282,10 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="70"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="43"/>
       <c r="S42" s="37"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
@@ -3312,11 +3312,11 @@
       <c r="AP42" s="20"/>
     </row>
     <row r="43" spans="1:42" ht="12" customHeight="1">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
@@ -3328,10 +3328,10 @@
       <c r="L43" s="25"/>
       <c r="M43" s="25"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="72"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="45"/>
       <c r="S43" s="27"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
@@ -3358,17 +3358,17 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1">
-      <c r="A44" s="42">
+      <c r="A44" s="58">
         <v>2</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="44" t="s">
+      <c r="E44" s="56" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -3382,10 +3382,10 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="69"/>
-      <c r="P44" s="69"/>
-      <c r="Q44" s="69"/>
-      <c r="R44" s="70"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="43"/>
       <c r="S44" s="22"/>
       <c r="T44" s="34"/>
       <c r="U44" s="34"/>
@@ -3412,11 +3412,11 @@
       <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:42" ht="12" customHeight="1">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
@@ -3428,10 +3428,10 @@
       <c r="L45" s="25"/>
       <c r="M45" s="25"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="72"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="45"/>
       <c r="S45" s="24"/>
       <c r="T45" s="28"/>
       <c r="U45" s="25"/>
@@ -3458,17 +3458,17 @@
       <c r="AP45" s="25"/>
     </row>
     <row r="46" spans="1:42" ht="12" customHeight="1">
-      <c r="A46" s="42">
+      <c r="A46" s="58">
         <v>3</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44" t="s">
+      <c r="C46" s="56"/>
+      <c r="D46" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="44" t="s">
+      <c r="E46" s="56" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="17" t="s">
@@ -3482,10 +3482,10 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="69"/>
-      <c r="P46" s="69"/>
-      <c r="Q46" s="69"/>
-      <c r="R46" s="70"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="43"/>
       <c r="S46" s="22"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
@@ -3512,11 +3512,11 @@
       <c r="AP46" s="20"/>
     </row>
     <row r="47" spans="1:42" ht="12" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
@@ -3528,10 +3528,10 @@
       <c r="L47" s="25"/>
       <c r="M47" s="25"/>
       <c r="N47" s="28"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="72"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="45"/>
       <c r="S47" s="24"/>
       <c r="T47" s="28"/>
       <c r="U47" s="25"/>
@@ -3558,17 +3558,17 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:42" ht="12" customHeight="1">
-      <c r="A48" s="42">
+      <c r="A48" s="58">
         <v>4</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44" t="s">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="56" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="17" t="s">
@@ -3582,10 +3582,10 @@
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="69"/>
-      <c r="P48" s="69"/>
-      <c r="Q48" s="69"/>
-      <c r="R48" s="70"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="43"/>
       <c r="S48" s="22"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
@@ -3612,11 +3612,11 @@
       <c r="AP48" s="20"/>
     </row>
     <row r="49" spans="1:42" ht="12" customHeight="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
@@ -3628,10 +3628,10 @@
       <c r="L49" s="25"/>
       <c r="M49" s="25"/>
       <c r="N49" s="28"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="72"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="45"/>
       <c r="S49" s="24"/>
       <c r="T49" s="28"/>
       <c r="U49" s="25"/>
@@ -3658,17 +3658,17 @@
       <c r="AP49" s="25"/>
     </row>
     <row r="50" spans="1:42" ht="12" customHeight="1">
-      <c r="A50" s="42">
+      <c r="A50" s="58">
         <v>5</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44" t="s">
+      <c r="C50" s="56"/>
+      <c r="D50" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="44" t="s">
+      <c r="E50" s="56" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="17" t="s">
@@ -3682,10 +3682,10 @@
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="69"/>
-      <c r="P50" s="69"/>
-      <c r="Q50" s="69"/>
-      <c r="R50" s="70"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="43"/>
       <c r="S50" s="22"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
@@ -3712,11 +3712,11 @@
       <c r="AP50" s="20"/>
     </row>
     <row r="51" spans="1:42" ht="12" customHeight="1">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
@@ -3728,14 +3728,14 @@
       <c r="L51" s="25"/>
       <c r="M51" s="25"/>
       <c r="N51" s="28"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="72"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="45"/>
       <c r="S51" s="24"/>
       <c r="T51" s="28"/>
-      <c r="U51" s="25"/>
-      <c r="V51" s="25"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
       <c r="W51" s="25"/>
       <c r="X51" s="25"/>
       <c r="Y51" s="25"/>
@@ -3758,17 +3758,17 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:42" ht="12" customHeight="1">
-      <c r="A52" s="42">
+      <c r="A52" s="58">
         <v>6</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="44"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="17" t="s">
         <v>13</v>
       </c>
@@ -3780,10 +3780,10 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="70"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="43"/>
       <c r="S52" s="22"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
@@ -3810,11 +3810,11 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="1:42" ht="12" customHeight="1">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
@@ -3826,10 +3826,10 @@
       <c r="L53" s="25"/>
       <c r="M53" s="25"/>
       <c r="N53" s="25"/>
-      <c r="O53" s="71"/>
-      <c r="P53" s="71"/>
-      <c r="Q53" s="71"/>
-      <c r="R53" s="72"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="45"/>
       <c r="S53" s="24"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
@@ -3856,17 +3856,17 @@
       <c r="AP53" s="25"/>
     </row>
     <row r="54" spans="1:42" ht="12" customHeight="1">
-      <c r="A54" s="42">
+      <c r="A54" s="58">
         <v>5</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44" t="s">
+      <c r="C54" s="56"/>
+      <c r="D54" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="44"/>
+      <c r="E54" s="56"/>
       <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
@@ -3878,10 +3878,10 @@
       <c r="L54" s="20"/>
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="69"/>
-      <c r="P54" s="69"/>
-      <c r="Q54" s="69"/>
-      <c r="R54" s="70"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="43"/>
       <c r="S54" s="22"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
@@ -3908,11 +3908,11 @@
       <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="1:42" ht="12" customHeight="1">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
@@ -3924,10 +3924,10 @@
       <c r="L55" s="25"/>
       <c r="M55" s="25"/>
       <c r="N55" s="25"/>
-      <c r="O55" s="71"/>
-      <c r="P55" s="71"/>
-      <c r="Q55" s="71"/>
-      <c r="R55" s="72"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="45"/>
       <c r="S55" s="24"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
@@ -3954,17 +3954,17 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:42" ht="12" customHeight="1">
-      <c r="A56" s="42">
+      <c r="A56" s="58">
         <v>6</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44" t="s">
+      <c r="C56" s="56"/>
+      <c r="D56" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="44"/>
+      <c r="E56" s="56"/>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
@@ -3976,10 +3976,10 @@
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="69"/>
-      <c r="R56" s="70"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="43"/>
       <c r="S56" s="22"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
@@ -4006,11 +4006,11 @@
       <c r="AP56" s="20"/>
     </row>
     <row r="57" spans="1:42" ht="12" customHeight="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="23" t="s">
         <v>14</v>
       </c>
@@ -4022,10 +4022,10 @@
       <c r="L57" s="25"/>
       <c r="M57" s="25"/>
       <c r="N57" s="25"/>
-      <c r="O57" s="71"/>
-      <c r="P57" s="71"/>
-      <c r="Q57" s="71"/>
-      <c r="R57" s="72"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="45"/>
       <c r="S57" s="24"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
@@ -4098,15 +4098,15 @@
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="12" customHeight="1">
-      <c r="A59" s="42">
+      <c r="A59" s="58">
         <v>1</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
@@ -4148,11 +4148,11 @@
       <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:42" ht="12" customHeight="1">
-      <c r="A60" s="52"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
       <c r="F60" s="23" t="s">
         <v>14</v>
       </c>
@@ -4194,15 +4194,15 @@
       <c r="AP60" s="25"/>
     </row>
     <row r="61" spans="1:42" ht="12" customHeight="1">
-      <c r="A61" s="42">
+      <c r="A61" s="58">
         <v>2</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="44"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
@@ -4244,11 +4244,11 @@
       <c r="AP61" s="20"/>
     </row>
     <row r="62" spans="1:42" ht="12" customHeight="1">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
@@ -4290,15 +4290,15 @@
       <c r="AP62" s="25"/>
     </row>
     <row r="63" spans="1:42" ht="12" customHeight="1">
-      <c r="A63" s="42">
+      <c r="A63" s="58">
         <v>3</v>
       </c>
-      <c r="B63" s="44" t="s">
+      <c r="B63" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="44"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
@@ -4340,11 +4340,11 @@
       <c r="AP63" s="20"/>
     </row>
     <row r="64" spans="1:42" ht="12" customHeight="1">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="23" t="s">
         <v>14</v>
       </c>
@@ -4386,13 +4386,13 @@
       <c r="AP64" s="25"/>
     </row>
     <row r="65" spans="1:42" ht="12" customHeight="1">
-      <c r="A65" s="42">
+      <c r="A65" s="58">
         <v>4</v>
       </c>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="17" t="s">
         <v>13</v>
       </c>
@@ -4434,11 +4434,11 @@
       <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:42" ht="12" customHeight="1">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="23" t="s">
         <v>14</v>
       </c>
@@ -4480,13 +4480,13 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="1:42" ht="12" customHeight="1">
-      <c r="A67" s="42">
+      <c r="A67" s="58">
         <v>5</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="56"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
@@ -4528,11 +4528,11 @@
       <c r="AP67" s="20"/>
     </row>
     <row r="68" spans="1:42" ht="12" customHeight="1">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="23" t="s">
         <v>14</v>
       </c>
@@ -4574,13 +4574,13 @@
       <c r="AP68" s="25"/>
     </row>
     <row r="69" spans="1:42" ht="12" customHeight="1">
-      <c r="A69" s="42">
+      <c r="A69" s="58">
         <v>6</v>
       </c>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
@@ -4622,11 +4622,11 @@
       <c r="AP69" s="20"/>
     </row>
     <row r="70" spans="1:42" ht="12" customHeight="1">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="23" t="s">
         <v>14</v>
       </c>
@@ -4714,13 +4714,13 @@
       <c r="AP71" s="13"/>
     </row>
     <row r="72" spans="1:42" ht="12" customHeight="1">
-      <c r="A72" s="42">
+      <c r="A72" s="58">
         <v>1</v>
       </c>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="44"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="56"/>
       <c r="F72" s="17" t="s">
         <v>13</v>
       </c>
@@ -4762,11 +4762,11 @@
       <c r="AP72" s="20"/>
     </row>
     <row r="73" spans="1:42" ht="12" customHeight="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
@@ -4808,13 +4808,13 @@
       <c r="AP73" s="25"/>
     </row>
     <row r="74" spans="1:42" ht="12" customHeight="1">
-      <c r="A74" s="42">
+      <c r="A74" s="58">
         <v>2</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="44"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
@@ -4856,11 +4856,11 @@
       <c r="AP74" s="20"/>
     </row>
     <row r="75" spans="1:42" ht="12" customHeight="1">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="23" t="s">
         <v>14</v>
       </c>
@@ -4902,13 +4902,13 @@
       <c r="AP75" s="25"/>
     </row>
     <row r="76" spans="1:42" ht="12" customHeight="1">
-      <c r="A76" s="42">
+      <c r="A76" s="58">
         <v>3</v>
       </c>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
@@ -4950,11 +4950,11 @@
       <c r="AP76" s="20"/>
     </row>
     <row r="77" spans="1:42" ht="12" customHeight="1">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="23" t="s">
         <v>14</v>
       </c>
@@ -4996,13 +4996,13 @@
       <c r="AP77" s="25"/>
     </row>
     <row r="78" spans="1:42" ht="12" customHeight="1">
-      <c r="A78" s="42">
+      <c r="A78" s="58">
         <v>4</v>
       </c>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="56"/>
+      <c r="D78" s="56"/>
+      <c r="E78" s="56"/>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
@@ -5044,11 +5044,11 @@
       <c r="AP78" s="20"/>
     </row>
     <row r="79" spans="1:42" ht="12" customHeight="1">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="23" t="s">
         <v>14</v>
       </c>
@@ -5090,13 +5090,13 @@
       <c r="AP79" s="25"/>
     </row>
     <row r="80" spans="1:42" ht="12" customHeight="1">
-      <c r="A80" s="42">
+      <c r="A80" s="58">
         <v>5</v>
       </c>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="44"/>
-      <c r="E80" s="44"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="56"/>
       <c r="F80" s="17" t="s">
         <v>13</v>
       </c>
@@ -5138,11 +5138,11 @@
       <c r="AP80" s="20"/>
     </row>
     <row r="81" spans="1:42" ht="12" customHeight="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="23" t="s">
         <v>14</v>
       </c>
@@ -5184,13 +5184,13 @@
       <c r="AP81" s="25"/>
     </row>
     <row r="82" spans="1:42" ht="12" customHeight="1">
-      <c r="A82" s="42">
+      <c r="A82" s="58">
         <v>6</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="44"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="56"/>
+      <c r="E82" s="56"/>
       <c r="F82" s="17" t="s">
         <v>13</v>
       </c>
@@ -5232,11 +5232,11 @@
       <c r="AP82" s="20"/>
     </row>
     <row r="83" spans="1:42" ht="12" customHeight="1">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="23" t="s">
         <v>14</v>
       </c>
@@ -5322,13 +5322,13 @@
       <c r="AP84" s="13"/>
     </row>
     <row r="85" spans="1:42" ht="12" customHeight="1">
-      <c r="A85" s="42">
+      <c r="A85" s="58">
         <v>1</v>
       </c>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
       <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
@@ -5370,11 +5370,11 @@
       <c r="AP85" s="20"/>
     </row>
     <row r="86" spans="1:42" ht="12" customHeight="1">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="23" t="s">
         <v>14</v>
       </c>
@@ -5416,13 +5416,13 @@
       <c r="AP86" s="25"/>
     </row>
     <row r="87" spans="1:42" ht="12" customHeight="1">
-      <c r="A87" s="42">
+      <c r="A87" s="58">
         <v>2</v>
       </c>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="56"/>
+      <c r="E87" s="56"/>
       <c r="F87" s="17" t="s">
         <v>13</v>
       </c>
@@ -5464,11 +5464,11 @@
       <c r="AP87" s="20"/>
     </row>
     <row r="88" spans="1:42" ht="12" customHeight="1">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="23" t="s">
         <v>14</v>
       </c>
@@ -5510,13 +5510,13 @@
       <c r="AP88" s="25"/>
     </row>
     <row r="89" spans="1:42" ht="12" customHeight="1">
-      <c r="A89" s="42">
+      <c r="A89" s="58">
         <v>3</v>
       </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="44"/>
-      <c r="E89" s="44"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="56"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="56"/>
       <c r="F89" s="17" t="s">
         <v>13</v>
       </c>
@@ -5558,11 +5558,11 @@
       <c r="AP89" s="20"/>
     </row>
     <row r="90" spans="1:42" ht="12" customHeight="1">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="23" t="s">
         <v>14</v>
       </c>
@@ -5604,13 +5604,13 @@
       <c r="AP90" s="25"/>
     </row>
     <row r="91" spans="1:42" ht="12" customHeight="1">
-      <c r="A91" s="42">
+      <c r="A91" s="58">
         <v>4</v>
       </c>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="44"/>
-      <c r="E91" s="44"/>
+      <c r="B91" s="56"/>
+      <c r="C91" s="56"/>
+      <c r="D91" s="56"/>
+      <c r="E91" s="56"/>
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
@@ -5652,11 +5652,11 @@
       <c r="AP91" s="20"/>
     </row>
     <row r="92" spans="1:42" ht="12" customHeight="1">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="23" t="s">
         <v>14</v>
       </c>
@@ -46003,225 +46003,6 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="G3:AP4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
@@ -46246,6 +46027,225 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G3:AP4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
+++ b/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473207AA-F5F0-4D5A-AA4A-ACC1E91B0113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7835F45E-74EB-461C-85BC-4E70526DC018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小工程" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -233,9 +246,6 @@
   <si>
     <t>作成完了</t>
   </si>
-  <si>
-    <t>作成中</t>
-  </si>
 </sst>
 </file>
 
@@ -247,7 +257,7 @@
     <numFmt numFmtId="178" formatCode="[$-411]yyyy&quot;年&quot;mm&quot;月&quot;"/>
     <numFmt numFmtId="179" formatCode="0&quot; &quot;;[Red]&quot;(&quot;0&quot;)&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -317,6 +327,13 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Ｍｓ ｐゴシック1"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -746,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -834,12 +851,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -891,6 +902,69 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,68 +983,26 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,8 +1222,8 @@
   <dimension ref="A1:AP1008"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB40" sqref="AB40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1298,266 +1330,266 @@
       <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="48">
+      <c r="G3" s="67">
         <v>45629</v>
       </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="50"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="69"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="66" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="67" t="s">
+      <c r="F4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="52"/>
-      <c r="AB4" s="52"/>
-      <c r="AC4" s="52"/>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52"/>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="53"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="72"/>
     </row>
     <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="54">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="61">
         <v>3</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="54">
+      <c r="H5" s="62"/>
+      <c r="I5" s="61">
         <v>4</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="54">
+      <c r="J5" s="62"/>
+      <c r="K5" s="61">
         <v>5</v>
       </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="54">
+      <c r="L5" s="62"/>
+      <c r="M5" s="61">
         <v>6</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="54">
+      <c r="N5" s="62"/>
+      <c r="O5" s="61">
         <v>7</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="54">
+      <c r="P5" s="62"/>
+      <c r="Q5" s="61">
         <v>8</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="54">
+      <c r="R5" s="62"/>
+      <c r="S5" s="61">
         <v>9</v>
       </c>
-      <c r="T5" s="55"/>
-      <c r="U5" s="54">
+      <c r="T5" s="62"/>
+      <c r="U5" s="61">
         <v>10</v>
       </c>
-      <c r="V5" s="55"/>
-      <c r="W5" s="54">
+      <c r="V5" s="62"/>
+      <c r="W5" s="61">
         <v>11</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="54">
+      <c r="X5" s="62"/>
+      <c r="Y5" s="61">
         <v>12</v>
       </c>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="54">
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="61">
         <v>13</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="54">
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="61">
         <v>14</v>
       </c>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="54">
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="61">
         <v>15</v>
       </c>
-      <c r="AF5" s="55"/>
-      <c r="AG5" s="54">
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="61">
         <v>16</v>
       </c>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="54">
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="61">
         <v>17</v>
       </c>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="54">
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="61">
         <v>18</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="54">
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="61">
         <v>19</v>
       </c>
-      <c r="AN5" s="55"/>
-      <c r="AO5" s="54">
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="61">
         <v>20</v>
       </c>
-      <c r="AP5" s="55"/>
+      <c r="AP5" s="62"/>
     </row>
     <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="54" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="55"/>
-      <c r="I6" s="54" t="s">
+      <c r="H6" s="62"/>
+      <c r="I6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="55"/>
-      <c r="K6" s="54" t="s">
+      <c r="J6" s="62"/>
+      <c r="K6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="54" t="s">
+      <c r="L6" s="62"/>
+      <c r="M6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="55"/>
-      <c r="O6" s="54" t="s">
+      <c r="N6" s="62"/>
+      <c r="O6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="54" t="s">
+      <c r="P6" s="62"/>
+      <c r="Q6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="55"/>
-      <c r="S6" s="54" t="s">
+      <c r="R6" s="62"/>
+      <c r="S6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="55"/>
-      <c r="U6" s="54" t="s">
+      <c r="T6" s="62"/>
+      <c r="U6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="55"/>
-      <c r="W6" s="54" t="s">
+      <c r="V6" s="62"/>
+      <c r="W6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="54" t="s">
+      <c r="X6" s="62"/>
+      <c r="Y6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="54" t="s">
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="54" t="s">
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="54" t="s">
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="54" t="s">
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="54" t="s">
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="54" t="s">
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="54" t="s">
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="54" t="s">
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="55"/>
+      <c r="AP6" s="62"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -1606,13 +1638,13 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1">
-      <c r="A8" s="58">
+      <c r="A8" s="46">
         <v>1</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1654,11 +1686,11 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1700,13 +1732,13 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="58">
+      <c r="A10" s="46">
         <v>2</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1748,11 +1780,11 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="12" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
@@ -1794,13 +1826,13 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12" customHeight="1">
-      <c r="A12" s="58">
+      <c r="A12" s="46">
         <v>3</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1842,11 +1874,11 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:42" ht="12" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
@@ -1888,13 +1920,13 @@
       <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="1:42" ht="12" customHeight="1">
-      <c r="A14" s="58">
+      <c r="A14" s="46">
         <v>4</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1936,11 +1968,11 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="12" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -1982,13 +2014,13 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12" customHeight="1">
-      <c r="A16" s="58">
+      <c r="A16" s="46">
         <v>5</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2030,11 +2062,11 @@
       <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:42" ht="12" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2076,13 +2108,13 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="1:42" ht="12" customHeight="1">
-      <c r="A18" s="58">
+      <c r="A18" s="46">
         <v>6</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2124,11 +2156,11 @@
       <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
@@ -2170,13 +2202,13 @@
       <c r="AP19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="12" customHeight="1">
-      <c r="A20" s="58">
+      <c r="A20" s="46">
         <v>7</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
       <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2218,11 +2250,11 @@
       <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:42" ht="12" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
       <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
@@ -2264,13 +2296,13 @@
       <c r="AP21" s="25"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1">
-      <c r="A22" s="58">
+      <c r="A22" s="46">
         <v>8</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2312,11 +2344,11 @@
       <c r="AP22" s="20"/>
     </row>
     <row r="23" spans="1:42" ht="12" customHeight="1">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
       <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
@@ -2404,38 +2436,38 @@
       <c r="AP24" s="13"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
-      <c r="A25" s="62">
+      <c r="A25" s="51">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="59">
+      <c r="C25" s="53">
         <v>8</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="42"/>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="42"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="31"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="40"/>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="29"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
       <c r="W25" s="20"/>
@@ -2460,11 +2492,11 @@
       <c r="AP25" s="20"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
       <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
@@ -2475,14 +2507,14 @@
       <c r="K26" s="28"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="45"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="43"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
@@ -2506,36 +2538,36 @@
       <c r="AP26" s="25"/>
     </row>
     <row r="27" spans="1:42" ht="12" customHeight="1">
-      <c r="A27" s="62">
+      <c r="A27" s="51">
         <v>2</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="59">
+      <c r="C27" s="53">
         <v>16</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="43"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="40"/>
+      <c r="P27" s="40"/>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="41"/>
       <c r="S27" s="22"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
@@ -2562,11 +2594,11 @@
       <c r="AP27" s="20"/>
     </row>
     <row r="28" spans="1:42" ht="12" customHeight="1">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
@@ -2577,11 +2609,11 @@
       <c r="K28" s="28"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="45"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="43"/>
       <c r="S28" s="24"/>
       <c r="T28" s="25"/>
       <c r="U28" s="25"/>
@@ -2608,36 +2640,36 @@
       <c r="AP28" s="25"/>
     </row>
     <row r="29" spans="1:42" ht="12" customHeight="1">
-      <c r="A29" s="62">
+      <c r="A29" s="51">
         <v>3</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="59">
+      <c r="C29" s="53">
         <v>24</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
-      <c r="R29" s="43"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="40"/>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="41"/>
       <c r="S29" s="22"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
@@ -2664,11 +2696,11 @@
       <c r="AP29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="12" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2680,10 +2712,10 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="45"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="43"/>
       <c r="S30" s="24"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
@@ -2710,34 +2742,34 @@
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="1:42" ht="12" customHeight="1">
-      <c r="A31" s="62">
+      <c r="A31" s="51">
         <v>4</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="45"/>
       <c r="S31" s="22"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
@@ -2764,26 +2796,26 @@
       <c r="AP31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="12" customHeight="1">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="61"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="54"/>
       <c r="F32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="24"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
-      <c r="M32" s="25"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
       <c r="N32" s="28"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="45"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="43"/>
       <c r="S32" s="24"/>
       <c r="T32" s="25"/>
       <c r="U32" s="25"/>
@@ -2810,34 +2842,34 @@
       <c r="AP32" s="25"/>
     </row>
     <row r="33" spans="1:42" ht="12" customHeight="1">
-      <c r="A33" s="62">
+      <c r="A33" s="51">
         <v>5</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59" t="s">
+      <c r="C33" s="53"/>
+      <c r="D33" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="43"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="41"/>
       <c r="S33" s="22"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
@@ -2864,26 +2896,26 @@
       <c r="AP33" s="20"/>
     </row>
     <row r="34" spans="1:42" ht="12" customHeight="1">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="61"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="54"/>
       <c r="F34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="25"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
       <c r="N34" s="28"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
       <c r="S34" s="24"/>
       <c r="T34" s="25"/>
       <c r="U34" s="25"/>
@@ -2910,34 +2942,34 @@
       <c r="AP34" s="25"/>
     </row>
     <row r="35" spans="1:42" ht="12" customHeight="1">
-      <c r="A35" s="62">
+      <c r="A35" s="51">
         <v>6</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="B35" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="59" t="s">
+      <c r="C35" s="53"/>
+      <c r="D35" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="59" t="s">
+      <c r="E35" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="42"/>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="42"/>
-      <c r="R35" s="43"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="40"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="40"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="40"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="41"/>
       <c r="S35" s="22"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
@@ -2964,26 +2996,26 @@
       <c r="AP35" s="20"/>
     </row>
     <row r="36" spans="1:42" ht="12" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="54"/>
       <c r="F36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="25"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="44"/>
-      <c r="P36" s="44"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="45"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="43"/>
       <c r="S36" s="24"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
@@ -3010,36 +3042,36 @@
       <c r="AP36" s="25"/>
     </row>
     <row r="37" spans="1:42" ht="12" customHeight="1">
-      <c r="A37" s="62">
+      <c r="A37" s="51">
         <v>7</v>
       </c>
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="59">
+      <c r="C37" s="53">
         <v>24</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="59" t="s">
+      <c r="E37" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="42"/>
-      <c r="R37" s="43"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="40"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
       <c r="S37" s="22"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
@@ -3066,26 +3098,26 @@
       <c r="AP37" s="20"/>
     </row>
     <row r="38" spans="1:42" ht="12" customHeight="1">
-      <c r="A38" s="60"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="54"/>
       <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="24"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="45"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="43"/>
       <c r="S38" s="24"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
@@ -3112,34 +3144,34 @@
       <c r="AP38" s="25"/>
     </row>
     <row r="39" spans="1:42" ht="12" customHeight="1">
-      <c r="A39" s="62">
+      <c r="A39" s="51">
         <v>8</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="59" t="s">
+      <c r="E39" s="53" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="42"/>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="42"/>
-      <c r="R39" s="43"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="41"/>
       <c r="S39" s="22"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
@@ -3166,26 +3198,26 @@
       <c r="AP39" s="20"/>
     </row>
     <row r="40" spans="1:42" ht="12" customHeight="1">
-      <c r="A40" s="60"/>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="61"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="24"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
       <c r="N40" s="28"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="43"/>
       <c r="S40" s="24"/>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
@@ -3258,35 +3290,35 @@
       <c r="AP41" s="13"/>
     </row>
     <row r="42" spans="1:42" ht="12" customHeight="1">
-      <c r="A42" s="58">
+      <c r="A42" s="46">
         <v>1</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56" t="s">
+      <c r="C42" s="48"/>
+      <c r="D42" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="56" t="s">
+      <c r="E42" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
       <c r="N42" s="20"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="37"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="35"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
       <c r="V42" s="20"/>
@@ -3296,10 +3328,10 @@
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
-      <c r="AF42" s="20"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
       <c r="AG42" s="20"/>
       <c r="AH42" s="20"/>
       <c r="AI42" s="20"/>
@@ -3312,26 +3344,26 @@
       <c r="AP42" s="20"/>
     </row>
     <row r="43" spans="1:42" ht="12" customHeight="1">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
       <c r="N43" s="28"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="45"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="43"/>
       <c r="S43" s="27"/>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
@@ -3342,10 +3374,10 @@
       <c r="Z43" s="25"/>
       <c r="AA43" s="25"/>
       <c r="AB43" s="25"/>
-      <c r="AC43" s="25"/>
-      <c r="AD43" s="25"/>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="25"/>
+      <c r="AC43" s="42"/>
+      <c r="AD43" s="42"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="42"/>
       <c r="AG43" s="25"/>
       <c r="AH43" s="25"/>
       <c r="AI43" s="25"/>
@@ -3358,37 +3390,37 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1">
-      <c r="A44" s="58">
+      <c r="A44" s="46">
         <v>2</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56" t="s">
+      <c r="C44" s="48"/>
+      <c r="D44" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="56" t="s">
+      <c r="E44" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="42"/>
-      <c r="P44" s="42"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="43"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="41"/>
       <c r="S44" s="22"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
       <c r="V44" s="20"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
@@ -3396,10 +3428,10 @@
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
-      <c r="AF44" s="20"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
       <c r="AG44" s="20"/>
       <c r="AH44" s="20"/>
       <c r="AI44" s="20"/>
@@ -3412,26 +3444,26 @@
       <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:42" ht="12" customHeight="1">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
       <c r="N45" s="28"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="45"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="43"/>
       <c r="S45" s="24"/>
       <c r="T45" s="28"/>
       <c r="U45" s="25"/>
@@ -3442,10 +3474,10 @@
       <c r="Z45" s="25"/>
       <c r="AA45" s="25"/>
       <c r="AB45" s="25"/>
-      <c r="AC45" s="25"/>
-      <c r="AD45" s="25"/>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="25"/>
+      <c r="AC45" s="42"/>
+      <c r="AD45" s="42"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="42"/>
       <c r="AG45" s="25"/>
       <c r="AH45" s="25"/>
       <c r="AI45" s="25"/>
@@ -3458,48 +3490,48 @@
       <c r="AP45" s="25"/>
     </row>
     <row r="46" spans="1:42" ht="12" customHeight="1">
-      <c r="A46" s="58">
+      <c r="A46" s="46">
         <v>3</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="48"/>
+      <c r="D46" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="56" t="s">
+      <c r="E46" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="43"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="41"/>
       <c r="S46" s="22"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="34"/>
+      <c r="V46" s="32"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
-      <c r="AF46" s="20"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="20"/>
       <c r="AI46" s="20"/>
@@ -3512,26 +3544,26 @@
       <c r="AP46" s="20"/>
     </row>
     <row r="47" spans="1:42" ht="12" customHeight="1">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
       <c r="N47" s="28"/>
-      <c r="O47" s="44"/>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="45"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="43"/>
       <c r="S47" s="24"/>
       <c r="T47" s="28"/>
       <c r="U47" s="25"/>
@@ -3542,10 +3574,10 @@
       <c r="Z47" s="25"/>
       <c r="AA47" s="25"/>
       <c r="AB47" s="25"/>
-      <c r="AC47" s="25"/>
-      <c r="AD47" s="25"/>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="25"/>
+      <c r="AC47" s="42"/>
+      <c r="AD47" s="42"/>
+      <c r="AE47" s="42"/>
+      <c r="AF47" s="42"/>
       <c r="AG47" s="25"/>
       <c r="AH47" s="25"/>
       <c r="AI47" s="25"/>
@@ -3558,48 +3590,48 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:42" ht="12" customHeight="1">
-      <c r="A48" s="58">
+      <c r="A48" s="46">
         <v>4</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="48"/>
+      <c r="D48" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="48" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="40"/>
       <c r="N48" s="20"/>
-      <c r="O48" s="42"/>
-      <c r="P48" s="42"/>
-      <c r="Q48" s="42"/>
-      <c r="R48" s="43"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="41"/>
       <c r="S48" s="22"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
-      <c r="AF48" s="20"/>
+      <c r="AC48" s="40"/>
+      <c r="AD48" s="40"/>
+      <c r="AE48" s="40"/>
+      <c r="AF48" s="40"/>
       <c r="AG48" s="20"/>
       <c r="AH48" s="20"/>
       <c r="AI48" s="20"/>
@@ -3612,26 +3644,26 @@
       <c r="AP48" s="20"/>
     </row>
     <row r="49" spans="1:42" ht="12" customHeight="1">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="24"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
       <c r="N49" s="28"/>
-      <c r="O49" s="44"/>
-      <c r="P49" s="44"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="45"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="43"/>
       <c r="S49" s="24"/>
       <c r="T49" s="28"/>
       <c r="U49" s="25"/>
@@ -3642,10 +3674,10 @@
       <c r="Z49" s="25"/>
       <c r="AA49" s="25"/>
       <c r="AB49" s="25"/>
-      <c r="AC49" s="25"/>
-      <c r="AD49" s="25"/>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="25"/>
+      <c r="AC49" s="42"/>
+      <c r="AD49" s="42"/>
+      <c r="AE49" s="42"/>
+      <c r="AF49" s="42"/>
       <c r="AG49" s="25"/>
       <c r="AH49" s="25"/>
       <c r="AI49" s="25"/>
@@ -3658,48 +3690,48 @@
       <c r="AP49" s="25"/>
     </row>
     <row r="50" spans="1:42" ht="12" customHeight="1">
-      <c r="A50" s="58">
+      <c r="A50" s="46">
         <v>5</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56" t="s">
+      <c r="C50" s="48"/>
+      <c r="D50" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="56" t="s">
-        <v>45</v>
+      <c r="E50" s="48" t="s">
+        <v>44</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="40"/>
+      <c r="M50" s="40"/>
       <c r="N50" s="20"/>
-      <c r="O50" s="42"/>
-      <c r="P50" s="42"/>
-      <c r="Q50" s="42"/>
-      <c r="R50" s="43"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="41"/>
       <c r="S50" s="22"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
       <c r="V50" s="20"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
-      <c r="Y50" s="34"/>
-      <c r="Z50" s="34"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
-      <c r="AF50" s="20"/>
+      <c r="AC50" s="40"/>
+      <c r="AD50" s="40"/>
+      <c r="AE50" s="40"/>
+      <c r="AF50" s="40"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="20"/>
       <c r="AI50" s="20"/>
@@ -3712,42 +3744,42 @@
       <c r="AP50" s="20"/>
     </row>
     <row r="51" spans="1:42" ht="12" customHeight="1">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="57"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
       <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="24"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
       <c r="N51" s="28"/>
-      <c r="O51" s="44"/>
-      <c r="P51" s="44"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="45"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="43"/>
       <c r="S51" s="24"/>
       <c r="T51" s="28"/>
       <c r="U51" s="28"/>
       <c r="V51" s="28"/>
-      <c r="W51" s="25"/>
-      <c r="X51" s="25"/>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="25"/>
-      <c r="AA51" s="25"/>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="25"/>
-      <c r="AD51" s="25"/>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="25"/>
-      <c r="AG51" s="25"/>
-      <c r="AH51" s="25"/>
+      <c r="W51" s="73"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="73"/>
+      <c r="AC51" s="74"/>
+      <c r="AD51" s="74"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="74"/>
+      <c r="AG51" s="73"/>
+      <c r="AH51" s="73"/>
       <c r="AI51" s="25"/>
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
@@ -3758,32 +3790,32 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:42" ht="12" customHeight="1">
-      <c r="A52" s="58">
+      <c r="A52" s="46">
         <v>6</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="48"/>
+      <c r="D52" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="56"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
+      <c r="G52" s="75"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="40"/>
+      <c r="M52" s="40"/>
       <c r="N52" s="20"/>
-      <c r="O52" s="42"/>
-      <c r="P52" s="42"/>
-      <c r="Q52" s="42"/>
-      <c r="R52" s="43"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="41"/>
       <c r="S52" s="22"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
@@ -3794,12 +3826,12 @@
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
-      <c r="AF52" s="20"/>
+      <c r="AC52" s="40"/>
+      <c r="AD52" s="40"/>
+      <c r="AE52" s="40"/>
+      <c r="AF52" s="40"/>
       <c r="AG52" s="20"/>
-      <c r="AH52" s="20"/>
+      <c r="AH52" s="32"/>
       <c r="AI52" s="20"/>
       <c r="AJ52" s="20"/>
       <c r="AK52" s="20"/>
@@ -3810,26 +3842,26 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="1:42" ht="12" customHeight="1">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
       <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="24"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="25"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
       <c r="N53" s="25"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="45"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="43"/>
       <c r="S53" s="24"/>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
@@ -3840,10 +3872,10 @@
       <c r="Z53" s="25"/>
       <c r="AA53" s="25"/>
       <c r="AB53" s="25"/>
-      <c r="AC53" s="25"/>
-      <c r="AD53" s="25"/>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="25"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
       <c r="AG53" s="25"/>
       <c r="AH53" s="25"/>
       <c r="AI53" s="25"/>
@@ -3856,46 +3888,46 @@
       <c r="AP53" s="25"/>
     </row>
     <row r="54" spans="1:42" ht="12" customHeight="1">
-      <c r="A54" s="58">
+      <c r="A54" s="46">
         <v>5</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56" t="s">
+      <c r="C54" s="48"/>
+      <c r="D54" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="48"/>
       <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
+      <c r="G54" s="75"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
       <c r="N54" s="20"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="43"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="41"/>
       <c r="S54" s="22"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
       <c r="V54" s="20"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
       <c r="AG54" s="20"/>
       <c r="AH54" s="20"/>
       <c r="AI54" s="20"/>
@@ -3908,26 +3940,26 @@
       <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="1:42" ht="12" customHeight="1">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="24"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="25"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
       <c r="N55" s="25"/>
-      <c r="O55" s="44"/>
-      <c r="P55" s="44"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="45"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="43"/>
       <c r="S55" s="24"/>
       <c r="T55" s="25"/>
       <c r="U55" s="25"/>
@@ -3938,10 +3970,10 @@
       <c r="Z55" s="25"/>
       <c r="AA55" s="25"/>
       <c r="AB55" s="25"/>
-      <c r="AC55" s="25"/>
-      <c r="AD55" s="25"/>
-      <c r="AE55" s="25"/>
-      <c r="AF55" s="25"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
       <c r="AG55" s="25"/>
       <c r="AH55" s="25"/>
       <c r="AI55" s="25"/>
@@ -3954,32 +3986,32 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:42" ht="12" customHeight="1">
-      <c r="A56" s="58">
+      <c r="A56" s="46">
         <v>6</v>
       </c>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56" t="s">
+      <c r="C56" s="48"/>
+      <c r="D56" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="56"/>
+      <c r="E56" s="48"/>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
+      <c r="G56" s="75"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="40"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="40"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="42"/>
-      <c r="P56" s="42"/>
-      <c r="Q56" s="42"/>
-      <c r="R56" s="43"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
       <c r="S56" s="22"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
@@ -3990,10 +4022,10 @@
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
-      <c r="AF56" s="20"/>
+      <c r="AC56" s="40"/>
+      <c r="AD56" s="40"/>
+      <c r="AE56" s="40"/>
+      <c r="AF56" s="40"/>
       <c r="AG56" s="20"/>
       <c r="AH56" s="20"/>
       <c r="AI56" s="20"/>
@@ -4006,26 +4038,26 @@
       <c r="AP56" s="20"/>
     </row>
     <row r="57" spans="1:42" ht="12" customHeight="1">
-      <c r="A57" s="57"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
       <c r="F57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="24"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-      <c r="M57" s="25"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
       <c r="N57" s="25"/>
-      <c r="O57" s="44"/>
-      <c r="P57" s="44"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="45"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="43"/>
       <c r="S57" s="24"/>
       <c r="T57" s="25"/>
       <c r="U57" s="25"/>
@@ -4036,10 +4068,10 @@
       <c r="Z57" s="25"/>
       <c r="AA57" s="25"/>
       <c r="AB57" s="25"/>
-      <c r="AC57" s="25"/>
-      <c r="AD57" s="25"/>
-      <c r="AE57" s="25"/>
-      <c r="AF57" s="25"/>
+      <c r="AC57" s="42"/>
+      <c r="AD57" s="42"/>
+      <c r="AE57" s="42"/>
+      <c r="AF57" s="42"/>
       <c r="AG57" s="25"/>
       <c r="AH57" s="25"/>
       <c r="AI57" s="25"/>
@@ -4098,15 +4130,15 @@
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="12" customHeight="1">
-      <c r="A59" s="58">
+      <c r="A59" s="46">
         <v>1</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
@@ -4136,10 +4168,10 @@
       <c r="AD59" s="20"/>
       <c r="AE59" s="20"/>
       <c r="AF59" s="20"/>
-      <c r="AG59" s="34"/>
-      <c r="AH59" s="34"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="34"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32"/>
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="32"/>
       <c r="AK59" s="20"/>
       <c r="AL59" s="20"/>
       <c r="AM59" s="20"/>
@@ -4148,11 +4180,11 @@
       <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:42" ht="12" customHeight="1">
-      <c r="A60" s="71"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="23" t="s">
         <v>14</v>
       </c>
@@ -4194,15 +4226,15 @@
       <c r="AP60" s="25"/>
     </row>
     <row r="61" spans="1:42" ht="12" customHeight="1">
-      <c r="A61" s="58">
+      <c r="A61" s="46">
         <v>2</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="48"/>
+      <c r="E61" s="48"/>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
@@ -4232,10 +4264,10 @@
       <c r="AD61" s="20"/>
       <c r="AE61" s="20"/>
       <c r="AF61" s="20"/>
-      <c r="AG61" s="34"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="34"/>
+      <c r="AG61" s="32"/>
+      <c r="AH61" s="32"/>
+      <c r="AI61" s="32"/>
+      <c r="AJ61" s="32"/>
       <c r="AK61" s="20"/>
       <c r="AL61" s="20"/>
       <c r="AM61" s="20"/>
@@ -4244,11 +4276,11 @@
       <c r="AP61" s="20"/>
     </row>
     <row r="62" spans="1:42" ht="12" customHeight="1">
-      <c r="A62" s="57"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
       <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
@@ -4290,15 +4322,15 @@
       <c r="AP62" s="25"/>
     </row>
     <row r="63" spans="1:42" ht="12" customHeight="1">
-      <c r="A63" s="58">
+      <c r="A63" s="46">
         <v>3</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="B63" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="48"/>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
@@ -4332,19 +4364,19 @@
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
       <c r="AJ63" s="20"/>
-      <c r="AK63" s="34"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="34"/>
-      <c r="AN63" s="34"/>
+      <c r="AK63" s="32"/>
+      <c r="AL63" s="32"/>
+      <c r="AM63" s="32"/>
+      <c r="AN63" s="32"/>
       <c r="AO63" s="20"/>
       <c r="AP63" s="20"/>
     </row>
     <row r="64" spans="1:42" ht="12" customHeight="1">
-      <c r="A64" s="57"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
       <c r="F64" s="23" t="s">
         <v>14</v>
       </c>
@@ -4386,13 +4418,13 @@
       <c r="AP64" s="25"/>
     </row>
     <row r="65" spans="1:42" ht="12" customHeight="1">
-      <c r="A65" s="58">
+      <c r="A65" s="46">
         <v>4</v>
       </c>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="48"/>
+      <c r="E65" s="48"/>
       <c r="F65" s="17" t="s">
         <v>13</v>
       </c>
@@ -4434,11 +4466,11 @@
       <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:42" ht="12" customHeight="1">
-      <c r="A66" s="57"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
       <c r="F66" s="23" t="s">
         <v>14</v>
       </c>
@@ -4480,13 +4512,13 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="1:42" ht="12" customHeight="1">
-      <c r="A67" s="58">
+      <c r="A67" s="46">
         <v>5</v>
       </c>
-      <c r="B67" s="56"/>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
@@ -4528,11 +4560,11 @@
       <c r="AP67" s="20"/>
     </row>
     <row r="68" spans="1:42" ht="12" customHeight="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="57"/>
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="23" t="s">
         <v>14</v>
       </c>
@@ -4574,13 +4606,13 @@
       <c r="AP68" s="25"/>
     </row>
     <row r="69" spans="1:42" ht="12" customHeight="1">
-      <c r="A69" s="58">
+      <c r="A69" s="46">
         <v>6</v>
       </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
@@ -4622,11 +4654,11 @@
       <c r="AP69" s="20"/>
     </row>
     <row r="70" spans="1:42" ht="12" customHeight="1">
-      <c r="A70" s="57"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
+      <c r="A70" s="47"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="23" t="s">
         <v>14</v>
       </c>
@@ -4714,13 +4746,13 @@
       <c r="AP71" s="13"/>
     </row>
     <row r="72" spans="1:42" ht="12" customHeight="1">
-      <c r="A72" s="58">
+      <c r="A72" s="46">
         <v>1</v>
       </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
       <c r="F72" s="17" t="s">
         <v>13</v>
       </c>
@@ -4762,11 +4794,11 @@
       <c r="AP72" s="20"/>
     </row>
     <row r="73" spans="1:42" ht="12" customHeight="1">
-      <c r="A73" s="57"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="57"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
@@ -4808,13 +4840,13 @@
       <c r="AP73" s="25"/>
     </row>
     <row r="74" spans="1:42" ht="12" customHeight="1">
-      <c r="A74" s="58">
+      <c r="A74" s="46">
         <v>2</v>
       </c>
-      <c r="B74" s="56"/>
-      <c r="C74" s="56"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="48"/>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
@@ -4856,11 +4888,11 @@
       <c r="AP74" s="20"/>
     </row>
     <row r="75" spans="1:42" ht="12" customHeight="1">
-      <c r="A75" s="57"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="57"/>
+      <c r="A75" s="47"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
       <c r="F75" s="23" t="s">
         <v>14</v>
       </c>
@@ -4902,13 +4934,13 @@
       <c r="AP75" s="25"/>
     </row>
     <row r="76" spans="1:42" ht="12" customHeight="1">
-      <c r="A76" s="58">
+      <c r="A76" s="46">
         <v>3</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
+      <c r="B76" s="48"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="48"/>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
@@ -4950,11 +4982,11 @@
       <c r="AP76" s="20"/>
     </row>
     <row r="77" spans="1:42" ht="12" customHeight="1">
-      <c r="A77" s="57"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="57"/>
+      <c r="A77" s="47"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
       <c r="F77" s="23" t="s">
         <v>14</v>
       </c>
@@ -4996,13 +5028,13 @@
       <c r="AP77" s="25"/>
     </row>
     <row r="78" spans="1:42" ht="12" customHeight="1">
-      <c r="A78" s="58">
+      <c r="A78" s="46">
         <v>4</v>
       </c>
-      <c r="B78" s="56"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="48"/>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
@@ -5044,11 +5076,11 @@
       <c r="AP78" s="20"/>
     </row>
     <row r="79" spans="1:42" ht="12" customHeight="1">
-      <c r="A79" s="57"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="57"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
       <c r="F79" s="23" t="s">
         <v>14</v>
       </c>
@@ -5090,13 +5122,13 @@
       <c r="AP79" s="25"/>
     </row>
     <row r="80" spans="1:42" ht="12" customHeight="1">
-      <c r="A80" s="58">
+      <c r="A80" s="46">
         <v>5</v>
       </c>
-      <c r="B80" s="56"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
+      <c r="B80" s="48"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="48"/>
       <c r="F80" s="17" t="s">
         <v>13</v>
       </c>
@@ -5138,11 +5170,11 @@
       <c r="AP80" s="20"/>
     </row>
     <row r="81" spans="1:42" ht="12" customHeight="1">
-      <c r="A81" s="57"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
       <c r="F81" s="23" t="s">
         <v>14</v>
       </c>
@@ -5184,13 +5216,13 @@
       <c r="AP81" s="25"/>
     </row>
     <row r="82" spans="1:42" ht="12" customHeight="1">
-      <c r="A82" s="58">
+      <c r="A82" s="46">
         <v>6</v>
       </c>
-      <c r="B82" s="56"/>
-      <c r="C82" s="56"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="48"/>
       <c r="F82" s="17" t="s">
         <v>13</v>
       </c>
@@ -5232,11 +5264,11 @@
       <c r="AP82" s="20"/>
     </row>
     <row r="83" spans="1:42" ht="12" customHeight="1">
-      <c r="A83" s="57"/>
-      <c r="B83" s="57"/>
-      <c r="C83" s="57"/>
-      <c r="D83" s="57"/>
-      <c r="E83" s="57"/>
+      <c r="A83" s="47"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
       <c r="F83" s="23" t="s">
         <v>14</v>
       </c>
@@ -5322,13 +5354,13 @@
       <c r="AP84" s="13"/>
     </row>
     <row r="85" spans="1:42" ht="12" customHeight="1">
-      <c r="A85" s="58">
+      <c r="A85" s="46">
         <v>1</v>
       </c>
-      <c r="B85" s="56"/>
-      <c r="C85" s="56"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="48"/>
       <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
@@ -5370,11 +5402,11 @@
       <c r="AP85" s="20"/>
     </row>
     <row r="86" spans="1:42" ht="12" customHeight="1">
-      <c r="A86" s="57"/>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57"/>
-      <c r="D86" s="57"/>
-      <c r="E86" s="57"/>
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
       <c r="F86" s="23" t="s">
         <v>14</v>
       </c>
@@ -5416,13 +5448,13 @@
       <c r="AP86" s="25"/>
     </row>
     <row r="87" spans="1:42" ht="12" customHeight="1">
-      <c r="A87" s="58">
+      <c r="A87" s="46">
         <v>2</v>
       </c>
-      <c r="B87" s="56"/>
-      <c r="C87" s="56"/>
-      <c r="D87" s="56"/>
-      <c r="E87" s="56"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="48"/>
       <c r="F87" s="17" t="s">
         <v>13</v>
       </c>
@@ -5464,11 +5496,11 @@
       <c r="AP87" s="20"/>
     </row>
     <row r="88" spans="1:42" ht="12" customHeight="1">
-      <c r="A88" s="57"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
       <c r="F88" s="23" t="s">
         <v>14</v>
       </c>
@@ -5510,13 +5542,13 @@
       <c r="AP88" s="25"/>
     </row>
     <row r="89" spans="1:42" ht="12" customHeight="1">
-      <c r="A89" s="58">
+      <c r="A89" s="46">
         <v>3</v>
       </c>
-      <c r="B89" s="56"/>
-      <c r="C89" s="56"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="48"/>
       <c r="F89" s="17" t="s">
         <v>13</v>
       </c>
@@ -5558,11 +5590,11 @@
       <c r="AP89" s="20"/>
     </row>
     <row r="90" spans="1:42" ht="12" customHeight="1">
-      <c r="A90" s="57"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="57"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="57"/>
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="47"/>
+      <c r="E90" s="47"/>
       <c r="F90" s="23" t="s">
         <v>14</v>
       </c>
@@ -5604,13 +5636,13 @@
       <c r="AP90" s="25"/>
     </row>
     <row r="91" spans="1:42" ht="12" customHeight="1">
-      <c r="A91" s="58">
+      <c r="A91" s="46">
         <v>4</v>
       </c>
-      <c r="B91" s="56"/>
-      <c r="C91" s="56"/>
-      <c r="D91" s="56"/>
-      <c r="E91" s="56"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
@@ -5652,11 +5684,11 @@
       <c r="AP91" s="20"/>
     </row>
     <row r="92" spans="1:42" ht="12" customHeight="1">
-      <c r="A92" s="57"/>
-      <c r="B92" s="57"/>
-      <c r="C92" s="57"/>
-      <c r="D92" s="57"/>
-      <c r="E92" s="57"/>
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
       <c r="F92" s="23" t="s">
         <v>14</v>
       </c>
@@ -46003,6 +46035,225 @@
     </row>
   </sheetData>
   <mergeCells count="243">
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G3:AP4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="C52:C53"/>
@@ -46027,225 +46278,6 @@
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="C42:C43"/>
     <mergeCell ref="D42:D43"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G3:AP4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
+++ b/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7835F45E-74EB-461C-85BC-4E70526DC018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729EF3D-BF2F-47A5-B57D-40F9FCA47687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -902,6 +902,33 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -911,28 +938,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -946,12 +961,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -983,26 +992,17 @@
     <xf numFmtId="178" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB40" sqref="AB40"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1330,266 +1330,266 @@
       <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="67">
+      <c r="G3" s="70">
         <v>45629</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="69"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="72"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="60" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="72"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
+      <c r="AB4" s="74"/>
+      <c r="AC4" s="74"/>
+      <c r="AD4" s="74"/>
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AG4" s="74"/>
+      <c r="AH4" s="74"/>
+      <c r="AI4" s="74"/>
+      <c r="AJ4" s="74"/>
+      <c r="AK4" s="74"/>
+      <c r="AL4" s="74"/>
+      <c r="AM4" s="74"/>
+      <c r="AN4" s="74"/>
+      <c r="AO4" s="74"/>
+      <c r="AP4" s="75"/>
     </row>
     <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="61">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="53">
         <v>3</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="61">
+      <c r="H5" s="54"/>
+      <c r="I5" s="53">
         <v>4</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="61">
+      <c r="J5" s="54"/>
+      <c r="K5" s="53">
         <v>5</v>
       </c>
-      <c r="L5" s="62"/>
-      <c r="M5" s="61">
+      <c r="L5" s="54"/>
+      <c r="M5" s="53">
         <v>6</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="61">
+      <c r="N5" s="54"/>
+      <c r="O5" s="53">
         <v>7</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="61">
+      <c r="P5" s="54"/>
+      <c r="Q5" s="53">
         <v>8</v>
       </c>
-      <c r="R5" s="62"/>
-      <c r="S5" s="61">
+      <c r="R5" s="54"/>
+      <c r="S5" s="53">
         <v>9</v>
       </c>
-      <c r="T5" s="62"/>
-      <c r="U5" s="61">
+      <c r="T5" s="54"/>
+      <c r="U5" s="53">
         <v>10</v>
       </c>
-      <c r="V5" s="62"/>
-      <c r="W5" s="61">
+      <c r="V5" s="54"/>
+      <c r="W5" s="53">
         <v>11</v>
       </c>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="61">
+      <c r="X5" s="54"/>
+      <c r="Y5" s="53">
         <v>12</v>
       </c>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="61">
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="53">
         <v>13</v>
       </c>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="61">
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="53">
         <v>14</v>
       </c>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="61">
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="53">
         <v>15</v>
       </c>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="61">
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="53">
         <v>16</v>
       </c>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="61">
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="53">
         <v>17</v>
       </c>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="61">
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="53">
         <v>18</v>
       </c>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="61">
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="53">
         <v>19</v>
       </c>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="61">
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="53">
         <v>20</v>
       </c>
-      <c r="AP5" s="62"/>
+      <c r="AP5" s="54"/>
     </row>
     <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="61" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="61" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="61" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="62"/>
-      <c r="M6" s="61" t="s">
+      <c r="L6" s="54"/>
+      <c r="M6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="61" t="s">
+      <c r="N6" s="54"/>
+      <c r="O6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="61" t="s">
+      <c r="P6" s="54"/>
+      <c r="Q6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="62"/>
-      <c r="S6" s="61" t="s">
+      <c r="R6" s="54"/>
+      <c r="S6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="62"/>
-      <c r="U6" s="61" t="s">
+      <c r="T6" s="54"/>
+      <c r="U6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="62"/>
-      <c r="W6" s="61" t="s">
+      <c r="V6" s="54"/>
+      <c r="W6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="61" t="s">
+      <c r="X6" s="54"/>
+      <c r="Y6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="61" t="s">
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="61" t="s">
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="62"/>
-      <c r="AE6" s="61" t="s">
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="61" t="s">
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61" t="s">
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="61" t="s">
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="61" t="s">
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="61" t="s">
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="62"/>
+      <c r="AP6" s="54"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -1638,13 +1638,13 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1">
-      <c r="A8" s="46">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1686,11 +1686,11 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1732,13 +1732,13 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="46">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1780,11 +1780,11 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="12" customHeight="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
@@ -1826,13 +1826,13 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12" customHeight="1">
-      <c r="A12" s="46">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
       <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1874,11 +1874,11 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:42" ht="12" customHeight="1">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
@@ -1920,13 +1920,13 @@
       <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="1:42" ht="12" customHeight="1">
-      <c r="A14" s="46">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1968,11 +1968,11 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="12" customHeight="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -2014,13 +2014,13 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12" customHeight="1">
-      <c r="A16" s="46">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2062,11 +2062,11 @@
       <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:42" ht="12" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2108,13 +2108,13 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="1:42" ht="12" customHeight="1">
-      <c r="A18" s="46">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2156,11 +2156,11 @@
       <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
@@ -2202,13 +2202,13 @@
       <c r="AP19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="12" customHeight="1">
-      <c r="A20" s="46">
+      <c r="A20" s="55">
         <v>7</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
       <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2250,11 +2250,11 @@
       <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:42" ht="12" customHeight="1">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
       <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
@@ -2296,13 +2296,13 @@
       <c r="AP21" s="25"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1">
-      <c r="A22" s="46">
+      <c r="A22" s="55">
         <v>8</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2344,11 +2344,11 @@
       <c r="AP22" s="20"/>
     </row>
     <row r="23" spans="1:42" ht="12" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
@@ -2436,19 +2436,19 @@
       <c r="AP24" s="13"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
-      <c r="A25" s="51">
+      <c r="A25" s="61">
         <v>1</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="58">
         <v>8</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2492,11 +2492,11 @@
       <c r="AP25" s="20"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
@@ -2538,19 +2538,19 @@
       <c r="AP26" s="25"/>
     </row>
     <row r="27" spans="1:42" ht="12" customHeight="1">
-      <c r="A27" s="51">
+      <c r="A27" s="61">
         <v>2</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="58">
         <v>16</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -2594,11 +2594,11 @@
       <c r="AP27" s="20"/>
     </row>
     <row r="28" spans="1:42" ht="12" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
@@ -2640,19 +2640,19 @@
       <c r="AP28" s="25"/>
     </row>
     <row r="29" spans="1:42" ht="12" customHeight="1">
-      <c r="A29" s="51">
+      <c r="A29" s="61">
         <v>3</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="58">
         <v>24</v>
       </c>
-      <c r="D29" s="53" t="s">
+      <c r="D29" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -2696,11 +2696,11 @@
       <c r="AP29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="12" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2742,24 +2742,24 @@
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="1:42" ht="12" customHeight="1">
-      <c r="A31" s="51">
+      <c r="A31" s="61">
         <v>4</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
       <c r="I31" s="44"/>
       <c r="J31" s="44"/>
       <c r="K31" s="44"/>
@@ -2796,15 +2796,15 @@
       <c r="AP31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="12" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="77"/>
+      <c r="G32" s="50"/>
       <c r="H32" s="42"/>
       <c r="I32" s="42"/>
       <c r="J32" s="42"/>
@@ -2842,24 +2842,24 @@
       <c r="AP32" s="25"/>
     </row>
     <row r="33" spans="1:42" ht="12" customHeight="1">
-      <c r="A33" s="51">
+      <c r="A33" s="61">
         <v>5</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="75"/>
-      <c r="H33" s="76"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
       <c r="I33" s="40"/>
       <c r="J33" s="40"/>
       <c r="K33" s="40"/>
@@ -2896,15 +2896,15 @@
       <c r="AP33" s="20"/>
     </row>
     <row r="34" spans="1:42" ht="12" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="54"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
       <c r="F34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="77"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="42"/>
       <c r="I34" s="42"/>
       <c r="J34" s="42"/>
@@ -2942,24 +2942,24 @@
       <c r="AP34" s="25"/>
     </row>
     <row r="35" spans="1:42" ht="12" customHeight="1">
-      <c r="A35" s="51">
+      <c r="A35" s="61">
         <v>6</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="E35" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="75"/>
-      <c r="H35" s="76"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
       <c r="K35" s="40"/>
@@ -2996,15 +2996,15 @@
       <c r="AP35" s="20"/>
     </row>
     <row r="36" spans="1:42" ht="12" customHeight="1">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="54"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
       <c r="F36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="77"/>
+      <c r="G36" s="50"/>
       <c r="H36" s="42"/>
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
@@ -3042,26 +3042,26 @@
       <c r="AP36" s="25"/>
     </row>
     <row r="37" spans="1:42" ht="12" customHeight="1">
-      <c r="A37" s="51">
+      <c r="A37" s="61">
         <v>7</v>
       </c>
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="58">
         <v>24</v>
       </c>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="75"/>
-      <c r="H37" s="76"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="40"/>
       <c r="J37" s="40"/>
       <c r="K37" s="40"/>
@@ -3098,15 +3098,15 @@
       <c r="AP37" s="20"/>
     </row>
     <row r="38" spans="1:42" ht="12" customHeight="1">
-      <c r="A38" s="52"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="54"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="77"/>
+      <c r="G38" s="50"/>
       <c r="H38" s="42"/>
       <c r="I38" s="42"/>
       <c r="J38" s="42"/>
@@ -3144,24 +3144,24 @@
       <c r="AP38" s="25"/>
     </row>
     <row r="39" spans="1:42" ht="12" customHeight="1">
-      <c r="A39" s="51">
+      <c r="A39" s="61">
         <v>8</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E39" s="58" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="75"/>
-      <c r="H39" s="76"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
@@ -3198,15 +3198,15 @@
       <c r="AP39" s="20"/>
     </row>
     <row r="40" spans="1:42" ht="12" customHeight="1">
-      <c r="A40" s="52"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="54"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="77"/>
+      <c r="G40" s="50"/>
       <c r="H40" s="42"/>
       <c r="I40" s="42"/>
       <c r="J40" s="42"/>
@@ -3290,24 +3290,24 @@
       <c r="AP41" s="13"/>
     </row>
     <row r="42" spans="1:42" ht="12" customHeight="1">
-      <c r="A42" s="46">
+      <c r="A42" s="55">
         <v>1</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="48"/>
-      <c r="D42" s="48" t="s">
+      <c r="C42" s="57"/>
+      <c r="D42" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="76"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="40"/>
@@ -3344,15 +3344,15 @@
       <c r="AP42" s="20"/>
     </row>
     <row r="43" spans="1:42" ht="12" customHeight="1">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="77"/>
+      <c r="G43" s="50"/>
       <c r="H43" s="42"/>
       <c r="I43" s="42"/>
       <c r="J43" s="42"/>
@@ -3390,24 +3390,24 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1">
-      <c r="A44" s="46">
+      <c r="A44" s="55">
         <v>2</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48" t="s">
+      <c r="C44" s="57"/>
+      <c r="D44" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="75"/>
-      <c r="H44" s="76"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="40"/>
@@ -3444,15 +3444,15 @@
       <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:42" ht="12" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="77"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="42"/>
       <c r="I45" s="42"/>
       <c r="J45" s="42"/>
@@ -3490,24 +3490,24 @@
       <c r="AP45" s="25"/>
     </row>
     <row r="46" spans="1:42" ht="12" customHeight="1">
-      <c r="A46" s="46">
+      <c r="A46" s="55">
         <v>3</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="75"/>
-      <c r="H46" s="76"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="49"/>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
       <c r="K46" s="40"/>
@@ -3544,15 +3544,15 @@
       <c r="AP46" s="20"/>
     </row>
     <row r="47" spans="1:42" ht="12" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
       <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="77"/>
+      <c r="G47" s="50"/>
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
       <c r="J47" s="42"/>
@@ -3590,24 +3590,24 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:42" ht="12" customHeight="1">
-      <c r="A48" s="46">
+      <c r="A48" s="55">
         <v>4</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="75"/>
-      <c r="H48" s="76"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
       <c r="K48" s="40"/>
@@ -3644,15 +3644,15 @@
       <c r="AP48" s="20"/>
     </row>
     <row r="49" spans="1:42" ht="12" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="77"/>
+      <c r="G49" s="50"/>
       <c r="H49" s="42"/>
       <c r="I49" s="42"/>
       <c r="J49" s="42"/>
@@ -3690,24 +3690,24 @@
       <c r="AP49" s="25"/>
     </row>
     <row r="50" spans="1:42" ht="12" customHeight="1">
-      <c r="A50" s="46">
+      <c r="A50" s="55">
         <v>5</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="57" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="75"/>
-      <c r="H50" s="76"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
       <c r="K50" s="40"/>
@@ -3744,15 +3744,15 @@
       <c r="AP50" s="20"/>
     </row>
     <row r="51" spans="1:42" ht="12" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="77"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="42"/>
       <c r="I51" s="42"/>
       <c r="J51" s="42"/>
@@ -3768,18 +3768,18 @@
       <c r="T51" s="28"/>
       <c r="U51" s="28"/>
       <c r="V51" s="28"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="74"/>
-      <c r="AD51" s="74"/>
-      <c r="AE51" s="74"/>
-      <c r="AF51" s="74"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="47"/>
+      <c r="AE51" s="47"/>
+      <c r="AF51" s="47"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
       <c r="AI51" s="25"/>
       <c r="AJ51" s="25"/>
       <c r="AK51" s="25"/>
@@ -3790,22 +3790,22 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:42" ht="12" customHeight="1">
-      <c r="A52" s="46">
+      <c r="A52" s="55">
         <v>6</v>
       </c>
-      <c r="B52" s="48" t="s">
+      <c r="B52" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="48"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="75"/>
-      <c r="H52" s="76"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
       <c r="I52" s="40"/>
       <c r="J52" s="40"/>
       <c r="K52" s="40"/>
@@ -3842,15 +3842,15 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="1:42" ht="12" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="56"/>
       <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="77"/>
+      <c r="G53" s="50"/>
       <c r="H53" s="42"/>
       <c r="I53" s="42"/>
       <c r="J53" s="42"/>
@@ -3888,22 +3888,22 @@
       <c r="AP53" s="25"/>
     </row>
     <row r="54" spans="1:42" ht="12" customHeight="1">
-      <c r="A54" s="46">
+      <c r="A54" s="55">
         <v>5</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="48"/>
+      <c r="E54" s="57"/>
       <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="75"/>
-      <c r="H54" s="76"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="49"/>
       <c r="I54" s="40"/>
       <c r="J54" s="40"/>
       <c r="K54" s="40"/>
@@ -3940,15 +3940,15 @@
       <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="1:42" ht="12" customHeight="1">
-      <c r="A55" s="47"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="56"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="77"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="42"/>
       <c r="I55" s="42"/>
       <c r="J55" s="42"/>
@@ -3986,22 +3986,22 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:42" ht="12" customHeight="1">
-      <c r="A56" s="46">
+      <c r="A56" s="55">
         <v>6</v>
       </c>
-      <c r="B56" s="48" t="s">
+      <c r="B56" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48" t="s">
+      <c r="C56" s="57"/>
+      <c r="D56" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="48"/>
+      <c r="E56" s="57"/>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="75"/>
-      <c r="H56" s="76"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="49"/>
       <c r="I56" s="40"/>
       <c r="J56" s="40"/>
       <c r="K56" s="40"/>
@@ -4038,15 +4038,15 @@
       <c r="AP56" s="20"/>
     </row>
     <row r="57" spans="1:42" ht="12" customHeight="1">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
       <c r="F57" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="77"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="42"/>
       <c r="I57" s="42"/>
       <c r="J57" s="42"/>
@@ -4130,15 +4130,15 @@
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="12" customHeight="1">
-      <c r="A59" s="46">
+      <c r="A59" s="55">
         <v>1</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
@@ -4180,11 +4180,11 @@
       <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:42" ht="12" customHeight="1">
-      <c r="A60" s="56"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
       <c r="F60" s="23" t="s">
         <v>14</v>
       </c>
@@ -4226,15 +4226,15 @@
       <c r="AP60" s="25"/>
     </row>
     <row r="61" spans="1:42" ht="12" customHeight="1">
-      <c r="A61" s="46">
+      <c r="A61" s="55">
         <v>2</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B61" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="48"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
@@ -4276,11 +4276,11 @@
       <c r="AP61" s="20"/>
     </row>
     <row r="62" spans="1:42" ht="12" customHeight="1">
-      <c r="A62" s="47"/>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
       <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
@@ -4322,15 +4322,15 @@
       <c r="AP62" s="25"/>
     </row>
     <row r="63" spans="1:42" ht="12" customHeight="1">
-      <c r="A63" s="46">
+      <c r="A63" s="55">
         <v>3</v>
       </c>
-      <c r="B63" s="48" t="s">
+      <c r="B63" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
@@ -4372,11 +4372,11 @@
       <c r="AP63" s="20"/>
     </row>
     <row r="64" spans="1:42" ht="12" customHeight="1">
-      <c r="A64" s="47"/>
-      <c r="B64" s="47"/>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="23" t="s">
         <v>14</v>
       </c>
@@ -4418,13 +4418,13 @@
       <c r="AP64" s="25"/>
     </row>
     <row r="65" spans="1:42" ht="12" customHeight="1">
-      <c r="A65" s="46">
+      <c r="A65" s="55">
         <v>4</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="17" t="s">
         <v>13</v>
       </c>
@@ -4466,11 +4466,11 @@
       <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:42" ht="12" customHeight="1">
-      <c r="A66" s="47"/>
-      <c r="B66" s="47"/>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="56"/>
       <c r="F66" s="23" t="s">
         <v>14</v>
       </c>
@@ -4512,13 +4512,13 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="1:42" ht="12" customHeight="1">
-      <c r="A67" s="46">
+      <c r="A67" s="55">
         <v>5</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
@@ -4560,11 +4560,11 @@
       <c r="AP67" s="20"/>
     </row>
     <row r="68" spans="1:42" ht="12" customHeight="1">
-      <c r="A68" s="47"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="56"/>
       <c r="F68" s="23" t="s">
         <v>14</v>
       </c>
@@ -4606,13 +4606,13 @@
       <c r="AP68" s="25"/>
     </row>
     <row r="69" spans="1:42" ht="12" customHeight="1">
-      <c r="A69" s="46">
+      <c r="A69" s="55">
         <v>6</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
@@ -4654,11 +4654,11 @@
       <c r="AP69" s="20"/>
     </row>
     <row r="70" spans="1:42" ht="12" customHeight="1">
-      <c r="A70" s="47"/>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
       <c r="F70" s="23" t="s">
         <v>14</v>
       </c>
@@ -4746,13 +4746,13 @@
       <c r="AP71" s="13"/>
     </row>
     <row r="72" spans="1:42" ht="12" customHeight="1">
-      <c r="A72" s="46">
+      <c r="A72" s="55">
         <v>1</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
       <c r="F72" s="17" t="s">
         <v>13</v>
       </c>
@@ -4794,11 +4794,11 @@
       <c r="AP72" s="20"/>
     </row>
     <row r="73" spans="1:42" ht="12" customHeight="1">
-      <c r="A73" s="47"/>
-      <c r="B73" s="47"/>
-      <c r="C73" s="47"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
@@ -4840,13 +4840,13 @@
       <c r="AP73" s="25"/>
     </row>
     <row r="74" spans="1:42" ht="12" customHeight="1">
-      <c r="A74" s="46">
+      <c r="A74" s="55">
         <v>2</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="48"/>
-      <c r="E74" s="48"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
@@ -4888,11 +4888,11 @@
       <c r="AP74" s="20"/>
     </row>
     <row r="75" spans="1:42" ht="12" customHeight="1">
-      <c r="A75" s="47"/>
-      <c r="B75" s="47"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="56"/>
       <c r="F75" s="23" t="s">
         <v>14</v>
       </c>
@@ -4934,13 +4934,13 @@
       <c r="AP75" s="25"/>
     </row>
     <row r="76" spans="1:42" ht="12" customHeight="1">
-      <c r="A76" s="46">
+      <c r="A76" s="55">
         <v>3</v>
       </c>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
@@ -4982,11 +4982,11 @@
       <c r="AP76" s="20"/>
     </row>
     <row r="77" spans="1:42" ht="12" customHeight="1">
-      <c r="A77" s="47"/>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="56"/>
+      <c r="D77" s="56"/>
+      <c r="E77" s="56"/>
       <c r="F77" s="23" t="s">
         <v>14</v>
       </c>
@@ -5028,13 +5028,13 @@
       <c r="AP77" s="25"/>
     </row>
     <row r="78" spans="1:42" ht="12" customHeight="1">
-      <c r="A78" s="46">
+      <c r="A78" s="55">
         <v>4</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="48"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
@@ -5076,11 +5076,11 @@
       <c r="AP78" s="20"/>
     </row>
     <row r="79" spans="1:42" ht="12" customHeight="1">
-      <c r="A79" s="47"/>
-      <c r="B79" s="47"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="47"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="56"/>
       <c r="F79" s="23" t="s">
         <v>14</v>
       </c>
@@ -5122,13 +5122,13 @@
       <c r="AP79" s="25"/>
     </row>
     <row r="80" spans="1:42" ht="12" customHeight="1">
-      <c r="A80" s="46">
+      <c r="A80" s="55">
         <v>5</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="48"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
       <c r="F80" s="17" t="s">
         <v>13</v>
       </c>
@@ -5170,11 +5170,11 @@
       <c r="AP80" s="20"/>
     </row>
     <row r="81" spans="1:42" ht="12" customHeight="1">
-      <c r="A81" s="47"/>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="56"/>
+      <c r="E81" s="56"/>
       <c r="F81" s="23" t="s">
         <v>14</v>
       </c>
@@ -5216,13 +5216,13 @@
       <c r="AP81" s="25"/>
     </row>
     <row r="82" spans="1:42" ht="12" customHeight="1">
-      <c r="A82" s="46">
+      <c r="A82" s="55">
         <v>6</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="48"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
       <c r="F82" s="17" t="s">
         <v>13</v>
       </c>
@@ -5264,11 +5264,11 @@
       <c r="AP82" s="20"/>
     </row>
     <row r="83" spans="1:42" ht="12" customHeight="1">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
       <c r="F83" s="23" t="s">
         <v>14</v>
       </c>
@@ -5354,13 +5354,13 @@
       <c r="AP84" s="13"/>
     </row>
     <row r="85" spans="1:42" ht="12" customHeight="1">
-      <c r="A85" s="46">
+      <c r="A85" s="55">
         <v>1</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="57"/>
       <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
@@ -5402,11 +5402,11 @@
       <c r="AP85" s="20"/>
     </row>
     <row r="86" spans="1:42" ht="12" customHeight="1">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="56"/>
       <c r="F86" s="23" t="s">
         <v>14</v>
       </c>
@@ -5448,13 +5448,13 @@
       <c r="AP86" s="25"/>
     </row>
     <row r="87" spans="1:42" ht="12" customHeight="1">
-      <c r="A87" s="46">
+      <c r="A87" s="55">
         <v>2</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
       <c r="F87" s="17" t="s">
         <v>13</v>
       </c>
@@ -5496,11 +5496,11 @@
       <c r="AP87" s="20"/>
     </row>
     <row r="88" spans="1:42" ht="12" customHeight="1">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
+      <c r="A88" s="56"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
       <c r="F88" s="23" t="s">
         <v>14</v>
       </c>
@@ -5542,13 +5542,13 @@
       <c r="AP88" s="25"/>
     </row>
     <row r="89" spans="1:42" ht="12" customHeight="1">
-      <c r="A89" s="46">
+      <c r="A89" s="55">
         <v>3</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="48"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
       <c r="F89" s="17" t="s">
         <v>13</v>
       </c>
@@ -5590,11 +5590,11 @@
       <c r="AP89" s="20"/>
     </row>
     <row r="90" spans="1:42" ht="12" customHeight="1">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
+      <c r="A90" s="56"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
+      <c r="E90" s="56"/>
       <c r="F90" s="23" t="s">
         <v>14</v>
       </c>
@@ -5636,13 +5636,13 @@
       <c r="AP90" s="25"/>
     </row>
     <row r="91" spans="1:42" ht="12" customHeight="1">
-      <c r="A91" s="46">
+      <c r="A91" s="55">
         <v>4</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="48"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
@@ -5684,11 +5684,11 @@
       <c r="AP91" s="20"/>
     </row>
     <row r="92" spans="1:42" ht="12" customHeight="1">
-      <c r="A92" s="47"/>
-      <c r="B92" s="47"/>
-      <c r="C92" s="47"/>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
+      <c r="A92" s="56"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
       <c r="F92" s="23" t="s">
         <v>14</v>
       </c>
@@ -46035,36 +46035,195 @@
     </row>
   </sheetData>
   <mergeCells count="243">
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="G3:AP4"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="C63:C64"/>
@@ -46089,195 +46248,36 @@
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="E42:E43"/>
     <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="G3:AP4"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">

--- a/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
+++ b/進捗管理表/Yanagisawa/進捗管理表_ProjectX_柳沢.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S-01\Desktop\Yanagisawa78\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C729EF3D-BF2F-47A5-B57D-40F9FCA47687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE18C795-2F62-41F6-A165-885DDBA97B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="45">
   <si>
     <t>■進捗管理表</t>
   </si>
@@ -337,7 +337,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,6 +389,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,7 +769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +929,9 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1012,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,9 +1242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AL50" sqref="AL50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1330,266 +1351,266 @@
       <c r="AP2" s="2"/>
     </row>
     <row r="3" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="70">
+      <c r="G3" s="71">
         <v>45629</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="73"/>
     </row>
     <row r="4" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="65" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
-      <c r="W4" s="74"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="74"/>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
-      <c r="AB4" s="74"/>
-      <c r="AC4" s="74"/>
-      <c r="AD4" s="74"/>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AG4" s="74"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="74"/>
-      <c r="AJ4" s="74"/>
-      <c r="AK4" s="74"/>
-      <c r="AL4" s="74"/>
-      <c r="AM4" s="74"/>
-      <c r="AN4" s="74"/>
-      <c r="AO4" s="74"/>
-      <c r="AP4" s="75"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="75"/>
+      <c r="Z4" s="75"/>
+      <c r="AA4" s="75"/>
+      <c r="AB4" s="75"/>
+      <c r="AC4" s="75"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
+      <c r="AI4" s="75"/>
+      <c r="AJ4" s="75"/>
+      <c r="AK4" s="75"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="75"/>
+      <c r="AN4" s="75"/>
+      <c r="AO4" s="75"/>
+      <c r="AP4" s="76"/>
     </row>
     <row r="5" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="53">
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="54">
         <v>3</v>
       </c>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53">
+      <c r="H5" s="55"/>
+      <c r="I5" s="54">
         <v>4</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="53">
+      <c r="J5" s="55"/>
+      <c r="K5" s="54">
         <v>5</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="53">
+      <c r="L5" s="55"/>
+      <c r="M5" s="54">
         <v>6</v>
       </c>
-      <c r="N5" s="54"/>
-      <c r="O5" s="53">
+      <c r="N5" s="55"/>
+      <c r="O5" s="54">
         <v>7</v>
       </c>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="53">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="54">
         <v>8</v>
       </c>
-      <c r="R5" s="54"/>
-      <c r="S5" s="53">
+      <c r="R5" s="55"/>
+      <c r="S5" s="54">
         <v>9</v>
       </c>
-      <c r="T5" s="54"/>
-      <c r="U5" s="53">
+      <c r="T5" s="55"/>
+      <c r="U5" s="54">
         <v>10</v>
       </c>
-      <c r="V5" s="54"/>
-      <c r="W5" s="53">
+      <c r="V5" s="55"/>
+      <c r="W5" s="54">
         <v>11</v>
       </c>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="53">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="54">
         <v>12</v>
       </c>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="53">
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="54">
         <v>13</v>
       </c>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="53">
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="54">
         <v>14</v>
       </c>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="53">
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="54">
         <v>15</v>
       </c>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="53">
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="54">
         <v>16</v>
       </c>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="53">
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="54">
         <v>17</v>
       </c>
-      <c r="AJ5" s="54"/>
-      <c r="AK5" s="53">
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="54">
         <v>18</v>
       </c>
-      <c r="AL5" s="54"/>
-      <c r="AM5" s="53">
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="54">
         <v>19</v>
       </c>
-      <c r="AN5" s="54"/>
-      <c r="AO5" s="53">
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="54">
         <v>20</v>
       </c>
-      <c r="AP5" s="54"/>
+      <c r="AP5" s="55"/>
     </row>
     <row r="6" spans="1:42" ht="13.5" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="53" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53" t="s">
+      <c r="H6" s="55"/>
+      <c r="I6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="53" t="s">
+      <c r="J6" s="55"/>
+      <c r="K6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53" t="s">
+      <c r="L6" s="55"/>
+      <c r="M6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="54"/>
-      <c r="O6" s="53" t="s">
+      <c r="N6" s="55"/>
+      <c r="O6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="53" t="s">
+      <c r="P6" s="55"/>
+      <c r="Q6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="54"/>
-      <c r="S6" s="53" t="s">
+      <c r="R6" s="55"/>
+      <c r="S6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="54"/>
-      <c r="U6" s="53" t="s">
+      <c r="T6" s="55"/>
+      <c r="U6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="54"/>
-      <c r="W6" s="53" t="s">
+      <c r="V6" s="55"/>
+      <c r="W6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="53" t="s">
+      <c r="X6" s="55"/>
+      <c r="Y6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="53" t="s">
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="53" t="s">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="53" t="s">
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="53" t="s">
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="53" t="s">
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="53" t="s">
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="53" t="s">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="53" t="s">
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AP6" s="54"/>
+      <c r="AP6" s="55"/>
     </row>
     <row r="7" spans="1:42" ht="12" customHeight="1">
       <c r="A7" s="10" t="s">
@@ -1638,13 +1659,13 @@
       <c r="AP7" s="13"/>
     </row>
     <row r="8" spans="1:42" ht="12" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="17" t="s">
         <v>13</v>
       </c>
@@ -1686,11 +1707,11 @@
       <c r="AP8" s="20"/>
     </row>
     <row r="9" spans="1:42" ht="12" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="23" t="s">
         <v>14</v>
       </c>
@@ -1732,13 +1753,13 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="17" t="s">
         <v>13</v>
       </c>
@@ -1780,11 +1801,11 @@
       <c r="AP10" s="20"/>
     </row>
     <row r="11" spans="1:42" ht="12" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
@@ -1826,13 +1847,13 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="17" t="s">
         <v>13</v>
       </c>
@@ -1874,11 +1895,11 @@
       <c r="AP12" s="20"/>
     </row>
     <row r="13" spans="1:42" ht="12" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="23" t="s">
         <v>14</v>
       </c>
@@ -1920,13 +1941,13 @@
       <c r="AP13" s="25"/>
     </row>
     <row r="14" spans="1:42" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="56">
         <v>4</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="17" t="s">
         <v>13</v>
       </c>
@@ -1968,11 +1989,11 @@
       <c r="AP14" s="20"/>
     </row>
     <row r="15" spans="1:42" ht="12" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
@@ -2014,13 +2035,13 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="56">
         <v>5</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="17" t="s">
         <v>13</v>
       </c>
@@ -2062,11 +2083,11 @@
       <c r="AP16" s="20"/>
     </row>
     <row r="17" spans="1:42" ht="12" customHeight="1">
-      <c r="A17" s="56"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="23" t="s">
         <v>14</v>
       </c>
@@ -2108,13 +2129,13 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="1:42" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="56">
         <v>6</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="17" t="s">
         <v>13</v>
       </c>
@@ -2156,11 +2177,11 @@
       <c r="AP18" s="20"/>
     </row>
     <row r="19" spans="1:42" ht="12" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="23" t="s">
         <v>14</v>
       </c>
@@ -2202,13 +2223,13 @@
       <c r="AP19" s="25"/>
     </row>
     <row r="20" spans="1:42" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="56">
         <v>7</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
       <c r="F20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2250,11 +2271,11 @@
       <c r="AP20" s="20"/>
     </row>
     <row r="21" spans="1:42" ht="12" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="23" t="s">
         <v>14</v>
       </c>
@@ -2296,13 +2317,13 @@
       <c r="AP21" s="25"/>
     </row>
     <row r="22" spans="1:42" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="56">
         <v>8</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
       <c r="F22" s="17" t="s">
         <v>13</v>
       </c>
@@ -2344,11 +2365,11 @@
       <c r="AP22" s="20"/>
     </row>
     <row r="23" spans="1:42" ht="12" customHeight="1">
-      <c r="A23" s="56"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="23" t="s">
         <v>14</v>
       </c>
@@ -2436,19 +2457,19 @@
       <c r="AP24" s="13"/>
     </row>
     <row r="25" spans="1:42" ht="12" customHeight="1">
-      <c r="A25" s="61">
+      <c r="A25" s="62">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="58">
+      <c r="C25" s="59">
         <v>8</v>
       </c>
-      <c r="D25" s="58" t="s">
+      <c r="D25" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F25" s="17" t="s">
@@ -2492,11 +2513,11 @@
       <c r="AP25" s="20"/>
     </row>
     <row r="26" spans="1:42" ht="12" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="23" t="s">
         <v>14</v>
       </c>
@@ -2538,19 +2559,19 @@
       <c r="AP26" s="25"/>
     </row>
     <row r="27" spans="1:42" ht="12" customHeight="1">
-      <c r="A27" s="61">
+      <c r="A27" s="62">
         <v>2</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="58">
+      <c r="C27" s="59">
         <v>16</v>
       </c>
-      <c r="D27" s="58" t="s">
+      <c r="D27" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="17" t="s">
@@ -2594,11 +2615,11 @@
       <c r="AP27" s="20"/>
     </row>
     <row r="28" spans="1:42" ht="12" customHeight="1">
-      <c r="A28" s="59"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="23" t="s">
         <v>14</v>
       </c>
@@ -2640,19 +2661,19 @@
       <c r="AP28" s="25"/>
     </row>
     <row r="29" spans="1:42" ht="12" customHeight="1">
-      <c r="A29" s="61">
+      <c r="A29" s="62">
         <v>3</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="59">
         <v>24</v>
       </c>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="17" t="s">
@@ -2696,11 +2717,11 @@
       <c r="AP29" s="20"/>
     </row>
     <row r="30" spans="1:42" ht="12" customHeight="1">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="23" t="s">
         <v>14</v>
       </c>
@@ -2742,17 +2763,17 @@
       <c r="AP30" s="25"/>
     </row>
     <row r="31" spans="1:42" ht="12" customHeight="1">
-      <c r="A31" s="61">
+      <c r="A31" s="62">
         <v>4</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58" t="s">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F31" s="17" t="s">
@@ -2796,11 +2817,11 @@
       <c r="AP31" s="20"/>
     </row>
     <row r="32" spans="1:42" ht="12" customHeight="1">
-      <c r="A32" s="59"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="23" t="s">
         <v>14</v>
       </c>
@@ -2842,17 +2863,17 @@
       <c r="AP32" s="25"/>
     </row>
     <row r="33" spans="1:42" ht="12" customHeight="1">
-      <c r="A33" s="61">
+      <c r="A33" s="62">
         <v>5</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="58" t="s">
+      <c r="E33" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="17" t="s">
@@ -2896,11 +2917,11 @@
       <c r="AP33" s="20"/>
     </row>
     <row r="34" spans="1:42" ht="12" customHeight="1">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="60"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="61"/>
       <c r="F34" s="23" t="s">
         <v>14</v>
       </c>
@@ -2942,17 +2963,17 @@
       <c r="AP34" s="25"/>
     </row>
     <row r="35" spans="1:42" ht="12" customHeight="1">
-      <c r="A35" s="61">
+      <c r="A35" s="62">
         <v>6</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
@@ -2996,11 +3017,11 @@
       <c r="AP35" s="20"/>
     </row>
     <row r="36" spans="1:42" ht="12" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
       <c r="F36" s="23" t="s">
         <v>14</v>
       </c>
@@ -3042,19 +3063,19 @@
       <c r="AP36" s="25"/>
     </row>
     <row r="37" spans="1:42" ht="12" customHeight="1">
-      <c r="A37" s="61">
+      <c r="A37" s="62">
         <v>7</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="58">
+      <c r="C37" s="59">
         <v>24</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F37" s="17" t="s">
@@ -3098,11 +3119,11 @@
       <c r="AP37" s="20"/>
     </row>
     <row r="38" spans="1:42" ht="12" customHeight="1">
-      <c r="A38" s="59"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="23" t="s">
         <v>14</v>
       </c>
@@ -3144,17 +3165,17 @@
       <c r="AP38" s="25"/>
     </row>
     <row r="39" spans="1:42" ht="12" customHeight="1">
-      <c r="A39" s="61">
+      <c r="A39" s="62">
         <v>8</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="59" t="s">
         <v>34</v>
       </c>
       <c r="F39" s="17" t="s">
@@ -3198,11 +3219,11 @@
       <c r="AP39" s="20"/>
     </row>
     <row r="40" spans="1:42" ht="12" customHeight="1">
-      <c r="A40" s="59"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="61"/>
       <c r="F40" s="23" t="s">
         <v>14</v>
       </c>
@@ -3290,18 +3311,18 @@
       <c r="AP41" s="13"/>
     </row>
     <row r="42" spans="1:42" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="56">
         <v>1</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57" t="s">
+      <c r="C42" s="58"/>
+      <c r="D42" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="57" t="s">
-        <v>44</v>
+      <c r="E42" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="F42" s="17" t="s">
         <v>13</v>
@@ -3344,11 +3365,11 @@
       <c r="AP42" s="20"/>
     </row>
     <row r="43" spans="1:42" ht="12" customHeight="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
       <c r="F43" s="23" t="s">
         <v>14</v>
       </c>
@@ -3390,18 +3411,18 @@
       <c r="AP43" s="25"/>
     </row>
     <row r="44" spans="1:42" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="56">
         <v>2</v>
       </c>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E44" s="57" t="s">
-        <v>44</v>
+      <c r="E44" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="F44" s="17" t="s">
         <v>13</v>
@@ -3444,11 +3465,11 @@
       <c r="AP44" s="20"/>
     </row>
     <row r="45" spans="1:42" ht="12" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="23" t="s">
         <v>14</v>
       </c>
@@ -3490,18 +3511,18 @@
       <c r="AP45" s="25"/>
     </row>
     <row r="46" spans="1:42" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="56">
         <v>3</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E46" s="57" t="s">
-        <v>44</v>
+      <c r="E46" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>13</v>
@@ -3544,11 +3565,11 @@
       <c r="AP46" s="20"/>
     </row>
     <row r="47" spans="1:42" ht="12" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
       <c r="F47" s="23" t="s">
         <v>14</v>
       </c>
@@ -3590,18 +3611,18 @@
       <c r="AP47" s="25"/>
     </row>
     <row r="48" spans="1:42" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="56">
         <v>4</v>
       </c>
-      <c r="B48" s="57" t="s">
+      <c r="B48" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="57" t="s">
-        <v>44</v>
+      <c r="E48" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>13</v>
@@ -3644,11 +3665,11 @@
       <c r="AP48" s="20"/>
     </row>
     <row r="49" spans="1:42" ht="12" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
       <c r="F49" s="23" t="s">
         <v>14</v>
       </c>
@@ -3690,18 +3711,18 @@
       <c r="AP49" s="25"/>
     </row>
     <row r="50" spans="1:42" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="56">
         <v>5</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="57" t="s">
-        <v>44</v>
+      <c r="E50" s="58" t="s">
+        <v>34</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>13</v>
@@ -3744,11 +3765,11 @@
       <c r="AP50" s="20"/>
     </row>
     <row r="51" spans="1:42" ht="12" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
       <c r="F51" s="23" t="s">
         <v>14</v>
       </c>
@@ -3790,17 +3811,19 @@
       <c r="AP51" s="25"/>
     </row>
     <row r="52" spans="1:42" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="56">
         <v>6</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E52" s="57"/>
+      <c r="E52" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="F52" s="17" t="s">
         <v>13</v>
       </c>
@@ -3811,17 +3834,17 @@
       <c r="K52" s="40"/>
       <c r="L52" s="40"/>
       <c r="M52" s="40"/>
-      <c r="N52" s="20"/>
+      <c r="N52" s="81"/>
       <c r="O52" s="40"/>
       <c r="P52" s="40"/>
       <c r="Q52" s="40"/>
       <c r="R52" s="41"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="20"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="81"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="81"/>
+      <c r="X52" s="81"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
@@ -3842,11 +3865,11 @@
       <c r="AP52" s="20"/>
     </row>
     <row r="53" spans="1:42" ht="12" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
       <c r="F53" s="23" t="s">
         <v>14</v>
       </c>
@@ -3857,17 +3880,17 @@
       <c r="K53" s="42"/>
       <c r="L53" s="42"/>
       <c r="M53" s="42"/>
-      <c r="N53" s="25"/>
+      <c r="N53" s="82"/>
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
       <c r="Q53" s="42"/>
       <c r="R53" s="43"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="25"/>
-      <c r="U53" s="25"/>
-      <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-      <c r="X53" s="25"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="82"/>
+      <c r="U53" s="82"/>
+      <c r="V53" s="82"/>
+      <c r="W53" s="82"/>
+      <c r="X53" s="82"/>
       <c r="Y53" s="25"/>
       <c r="Z53" s="25"/>
       <c r="AA53" s="25"/>
@@ -3877,7 +3900,7 @@
       <c r="AE53" s="42"/>
       <c r="AF53" s="42"/>
       <c r="AG53" s="25"/>
-      <c r="AH53" s="25"/>
+      <c r="AH53" s="28"/>
       <c r="AI53" s="25"/>
       <c r="AJ53" s="25"/>
       <c r="AK53" s="25"/>
@@ -3888,17 +3911,19 @@
       <c r="AP53" s="25"/>
     </row>
     <row r="54" spans="1:42" ht="12" customHeight="1">
-      <c r="A54" s="55">
+      <c r="A54" s="56">
         <v>5</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="F54" s="17" t="s">
         <v>13</v>
       </c>
@@ -3909,17 +3934,17 @@
       <c r="K54" s="40"/>
       <c r="L54" s="40"/>
       <c r="M54" s="40"/>
-      <c r="N54" s="20"/>
+      <c r="N54" s="81"/>
       <c r="O54" s="40"/>
       <c r="P54" s="40"/>
       <c r="Q54" s="40"/>
       <c r="R54" s="41"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
+      <c r="S54" s="83"/>
+      <c r="T54" s="81"/>
+      <c r="U54" s="81"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="81"/>
+      <c r="X54" s="81"/>
       <c r="Y54" s="32"/>
       <c r="Z54" s="32"/>
       <c r="AA54" s="20"/>
@@ -3929,7 +3954,7 @@
       <c r="AE54" s="40"/>
       <c r="AF54" s="40"/>
       <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
+      <c r="AH54" s="32"/>
       <c r="AI54" s="20"/>
       <c r="AJ54" s="20"/>
       <c r="AK54" s="20"/>
@@ -3940,11 +3965,11 @@
       <c r="AP54" s="20"/>
     </row>
     <row r="55" spans="1:42" ht="12" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
       <c r="F55" s="23" t="s">
         <v>14</v>
       </c>
@@ -3955,27 +3980,27 @@
       <c r="K55" s="42"/>
       <c r="L55" s="42"/>
       <c r="M55" s="42"/>
-      <c r="N55" s="25"/>
+      <c r="N55" s="82"/>
       <c r="O55" s="42"/>
       <c r="P55" s="42"/>
       <c r="Q55" s="42"/>
       <c r="R55" s="43"/>
-      <c r="S55" s="24"/>
-      <c r="T55" s="25"/>
-      <c r="U55" s="25"/>
-      <c r="V55" s="25"/>
-      <c r="W55" s="25"/>
-      <c r="X55" s="25"/>
-      <c r="Y55" s="25"/>
-      <c r="Z55" s="25"/>
-      <c r="AA55" s="25"/>
-      <c r="AB55" s="25"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="82"/>
+      <c r="U55" s="82"/>
+      <c r="V55" s="82"/>
+      <c r="W55" s="82"/>
+      <c r="X55" s="82"/>
+      <c r="Y55" s="82"/>
+      <c r="Z55" s="82"/>
+      <c r="AA55" s="82"/>
+      <c r="AB55" s="82"/>
       <c r="AC55" s="42"/>
       <c r="AD55" s="42"/>
       <c r="AE55" s="42"/>
       <c r="AF55" s="42"/>
       <c r="AG55" s="25"/>
-      <c r="AH55" s="25"/>
+      <c r="AH55" s="28"/>
       <c r="AI55" s="25"/>
       <c r="AJ55" s="25"/>
       <c r="AK55" s="25"/>
@@ -3986,17 +4011,19 @@
       <c r="AP55" s="25"/>
     </row>
     <row r="56" spans="1:42" ht="12" customHeight="1">
-      <c r="A56" s="55">
+      <c r="A56" s="56">
         <v>6</v>
       </c>
-      <c r="B56" s="57" t="s">
+      <c r="B56" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57" t="s">
+      <c r="C56" s="58"/>
+      <c r="D56" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="57"/>
+      <c r="E56" s="58" t="s">
+        <v>34</v>
+      </c>
       <c r="F56" s="17" t="s">
         <v>13</v>
       </c>
@@ -4007,27 +4034,27 @@
       <c r="K56" s="40"/>
       <c r="L56" s="40"/>
       <c r="M56" s="40"/>
-      <c r="N56" s="20"/>
+      <c r="N56" s="81"/>
       <c r="O56" s="40"/>
       <c r="P56" s="40"/>
       <c r="Q56" s="40"/>
       <c r="R56" s="41"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="20"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
+      <c r="S56" s="83"/>
+      <c r="T56" s="81"/>
+      <c r="U56" s="81"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="81"/>
+      <c r="X56" s="81"/>
+      <c r="Y56" s="81"/>
+      <c r="Z56" s="81"/>
+      <c r="AA56" s="81"/>
+      <c r="AB56" s="81"/>
       <c r="AC56" s="40"/>
       <c r="AD56" s="40"/>
       <c r="AE56" s="40"/>
       <c r="AF56" s="40"/>
       <c r="AG56" s="20"/>
-      <c r="AH56" s="20"/>
+      <c r="AH56" s="32"/>
       <c r="AI56" s="20"/>
       <c r="AJ56" s="20"/>
       <c r="AK56" s="20"/>
@@ -4038,11 +4065,11 @@
       <c r="AP56" s="20"/>
     </row>
     <row r="57" spans="1:42" ht="12" customHeight="1">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="23" t="s">
         <v>14</v>
       </c>
@@ -4053,27 +4080,27 @@
       <c r="K57" s="42"/>
       <c r="L57" s="42"/>
       <c r="M57" s="42"/>
-      <c r="N57" s="25"/>
+      <c r="N57" s="82"/>
       <c r="O57" s="42"/>
       <c r="P57" s="42"/>
       <c r="Q57" s="42"/>
       <c r="R57" s="43"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="25"/>
-      <c r="U57" s="25"/>
-      <c r="V57" s="25"/>
-      <c r="W57" s="25"/>
-      <c r="X57" s="25"/>
-      <c r="Y57" s="25"/>
-      <c r="Z57" s="25"/>
-      <c r="AA57" s="25"/>
-      <c r="AB57" s="25"/>
+      <c r="S57" s="84"/>
+      <c r="T57" s="82"/>
+      <c r="U57" s="82"/>
+      <c r="V57" s="82"/>
+      <c r="W57" s="82"/>
+      <c r="X57" s="82"/>
+      <c r="Y57" s="82"/>
+      <c r="Z57" s="82"/>
+      <c r="AA57" s="82"/>
+      <c r="AB57" s="82"/>
       <c r="AC57" s="42"/>
       <c r="AD57" s="42"/>
       <c r="AE57" s="42"/>
       <c r="AF57" s="42"/>
       <c r="AG57" s="25"/>
-      <c r="AH57" s="25"/>
+      <c r="AH57" s="28"/>
       <c r="AI57" s="25"/>
       <c r="AJ57" s="25"/>
       <c r="AK57" s="25"/>
@@ -4130,44 +4157,48 @@
       <c r="AP58" s="13"/>
     </row>
     <row r="59" spans="1:42" ht="12" customHeight="1">
-      <c r="A59" s="55">
+      <c r="A59" s="56">
         <v>1</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="58" t="s">
+        <v>44</v>
+      </c>
       <c r="F59" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="21"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="20"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
-      <c r="AD59" s="20"/>
-      <c r="AE59" s="20"/>
-      <c r="AF59" s="20"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
+      <c r="I59" s="40"/>
+      <c r="J59" s="40"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
+      <c r="M59" s="40"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="40"/>
+      <c r="AE59" s="40"/>
+      <c r="AF59" s="40"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
@@ -4180,44 +4211,44 @@
       <c r="AP59" s="20"/>
     </row>
     <row r="60" spans="1:42" ht="12" customHeight="1">
-      <c r="A60" s="76"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
+      <c r="A60" s="77"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
       <c r="F60" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="25"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="25"/>
-      <c r="U60" s="25"/>
-      <c r="V60" s="25"/>
-      <c r="W60" s="25"/>
-      <c r="X60" s="25"/>
-      <c r="Y60" s="25"/>
-      <c r="Z60" s="25"/>
-      <c r="AA60" s="25"/>
-      <c r="AB60" s="25"/>
-      <c r="AC60" s="25"/>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="25"/>
-      <c r="AF60" s="25"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="42"/>
+      <c r="AB60" s="42"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="42"/>
+      <c r="AE60" s="42"/>
+      <c r="AF60" s="42"/>
       <c r="AG60" s="25"/>
       <c r="AH60" s="25"/>
-      <c r="AI60" s="25"/>
-      <c r="AJ60" s="25"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
       <c r="AK60" s="25"/>
       <c r="AL60" s="25"/>
       <c r="AM60" s="25"/>
@@ -4226,44 +4257,48 @@
       <c r="AP60" s="25"/>
     </row>
     <row r="61" spans="1:42" ht="12" customHeight="1">
-      <c r="A61" s="55">
+      <c r="A61" s="56">
         <v>2</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="58" t="s">
+        <v>44</v>
+      </c>
       <c r="F61" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="20"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
-      <c r="AD61" s="20"/>
-      <c r="AE61" s="20"/>
-      <c r="AF61" s="20"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="40"/>
+      <c r="J61" s="40"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="40"/>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+      <c r="AB61" s="40"/>
+      <c r="AC61" s="40"/>
+      <c r="AD61" s="40"/>
+      <c r="AE61" s="40"/>
+      <c r="AF61" s="40"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
@@ -4276,90 +4311,94 @@
       <c r="AP61" s="20"/>
     </row>
     <row r="62" spans="1:42" ht="12" customHeight="1">
-      <c r="A62" s="56"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="57"/>
       <c r="F62" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="24"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="24"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="25"/>
-      <c r="AD62" s="25"/>
-      <c r="AE62" s="25"/>
-      <c r="AF62" s="25"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="50"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="42"/>
       <c r="AG62" s="25"/>
       <c r="AH62" s="25"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>
-      <c r="AK62" s="25"/>
-      <c r="AL62" s="25"/>
-      <c r="AM62" s="25"/>
-      <c r="AN62" s="25"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="28"/>
+      <c r="AM62" s="28"/>
+      <c r="AN62" s="28"/>
       <c r="AO62" s="25"/>
       <c r="AP62" s="25"/>
     </row>
     <row r="63" spans="1:42" ht="12" customHeight="1">
-      <c r="A63" s="55">
+      <c r="A63" s="56">
         <v>3</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
+      <c r="C63" s="58"/>
+      <c r="D63" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="58" t="s">
+        <v>44</v>
+      </c>
       <c r="F63" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="20"/>
-      <c r="Y63" s="20"/>
-      <c r="Z63" s="20"/>
-      <c r="AA63" s="20"/>
-      <c r="AB63" s="20"/>
-      <c r="AC63" s="20"/>
-      <c r="AD63" s="20"/>
-      <c r="AE63" s="20"/>
-      <c r="AF63" s="20"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="49"/>
+      <c r="I63" s="40"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+      <c r="AC63" s="40"/>
+      <c r="AD63" s="40"/>
+      <c r="AE63" s="40"/>
+      <c r="AF63" s="40"/>
       <c r="AG63" s="20"/>
       <c r="AH63" s="20"/>
       <c r="AI63" s="20"/>
@@ -4372,40 +4411,40 @@
       <c r="AP63" s="20"/>
     </row>
     <row r="64" spans="1:42" ht="12" customHeight="1">
-      <c r="A64" s="56"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="57"/>
       <c r="F64" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="24"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="25"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="26"/>
-      <c r="S64" s="24"/>
-      <c r="T64" s="25"/>
-      <c r="U64" s="25"/>
-      <c r="V64" s="25"/>
-      <c r="W64" s="25"/>
-      <c r="X64" s="25"/>
-      <c r="Y64" s="25"/>
-      <c r="Z64" s="25"/>
-      <c r="AA64" s="25"/>
-      <c r="AB64" s="25"/>
-      <c r="AC64" s="25"/>
-      <c r="AD64" s="25"/>
-      <c r="AE64" s="25"/>
-      <c r="AF64" s="25"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="42"/>
+      <c r="AB64" s="42"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="42"/>
       <c r="AG64" s="25"/>
       <c r="AH64" s="25"/>
       <c r="AI64" s="25"/>
@@ -4414,17 +4453,17 @@
       <c r="AL64" s="25"/>
       <c r="AM64" s="25"/>
       <c r="AN64" s="25"/>
-      <c r="AO64" s="25"/>
-      <c r="AP64" s="25"/>
+      <c r="AO64" s="28"/>
+      <c r="AP64" s="28"/>
     </row>
     <row r="65" spans="1:42" ht="12" customHeight="1">
-      <c r="A65" s="55">
+      <c r="A65" s="56">
         <v>4</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="58"/>
+      <c r="D65" s="58"/>
+      <c r="E65" s="58"/>
       <c r="F65" s="17" t="s">
         <v>13</v>
       </c>
@@ -4466,11 +4505,11 @@
       <c r="AP65" s="20"/>
     </row>
     <row r="66" spans="1:42" ht="12" customHeight="1">
-      <c r="A66" s="56"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
       <c r="F66" s="23" t="s">
         <v>14</v>
       </c>
@@ -4512,13 +4551,13 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="1:42" ht="12" customHeight="1">
-      <c r="A67" s="55">
+      <c r="A67" s="56">
         <v>5</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="17" t="s">
         <v>13</v>
       </c>
@@ -4560,11 +4599,11 @@
       <c r="AP67" s="20"/>
     </row>
     <row r="68" spans="1:42" ht="12" customHeight="1">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="56"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
       <c r="F68" s="23" t="s">
         <v>14</v>
       </c>
@@ -4606,13 +4645,13 @@
       <c r="AP68" s="25"/>
     </row>
     <row r="69" spans="1:42" ht="12" customHeight="1">
-      <c r="A69" s="55">
+      <c r="A69" s="56">
         <v>6</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="17" t="s">
         <v>13</v>
       </c>
@@ -4654,11 +4693,11 @@
       <c r="AP69" s="20"/>
     </row>
     <row r="70" spans="1:42" ht="12" customHeight="1">
-      <c r="A70" s="56"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
       <c r="F70" s="23" t="s">
         <v>14</v>
       </c>
@@ -4746,13 +4785,13 @@
       <c r="AP71" s="13"/>
     </row>
     <row r="72" spans="1:42" ht="12" customHeight="1">
-      <c r="A72" s="55">
+      <c r="A72" s="56">
         <v>1</v>
       </c>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
-      <c r="E72" s="57"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="58"/>
+      <c r="E72" s="58"/>
       <c r="F72" s="17" t="s">
         <v>13</v>
       </c>
@@ -4794,11 +4833,11 @@
       <c r="AP72" s="20"/>
     </row>
     <row r="73" spans="1:42" ht="12" customHeight="1">
-      <c r="A73" s="56"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
       <c r="F73" s="23" t="s">
         <v>14</v>
       </c>
@@ -4840,13 +4879,13 @@
       <c r="AP73" s="25"/>
     </row>
     <row r="74" spans="1:42" ht="12" customHeight="1">
-      <c r="A74" s="55">
+      <c r="A74" s="56">
         <v>2</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
       <c r="F74" s="17" t="s">
         <v>13</v>
       </c>
@@ -4888,11 +4927,11 @@
       <c r="AP74" s="20"/>
     </row>
     <row r="75" spans="1:42" ht="12" customHeight="1">
-      <c r="A75" s="56"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="56"/>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="23" t="s">
         <v>14</v>
       </c>
@@ -4934,13 +4973,13 @@
       <c r="AP75" s="25"/>
     </row>
     <row r="76" spans="1:42" ht="12" customHeight="1">
-      <c r="A76" s="55">
+      <c r="A76" s="56">
         <v>3</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="58"/>
+      <c r="E76" s="58"/>
       <c r="F76" s="17" t="s">
         <v>13</v>
       </c>
@@ -4982,11 +5021,11 @@
       <c r="AP76" s="20"/>
     </row>
     <row r="77" spans="1:42" ht="12" customHeight="1">
-      <c r="A77" s="56"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
+      <c r="A77" s="57"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="23" t="s">
         <v>14</v>
       </c>
@@ -5028,13 +5067,13 @@
       <c r="AP77" s="25"/>
     </row>
     <row r="78" spans="1:42" ht="12" customHeight="1">
-      <c r="A78" s="55">
+      <c r="A78" s="56">
         <v>4</v>
       </c>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="57"/>
+      <c r="B78" s="58"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
       <c r="F78" s="17" t="s">
         <v>13</v>
       </c>
@@ -5076,11 +5115,11 @@
       <c r="AP78" s="20"/>
     </row>
     <row r="79" spans="1:42" ht="12" customHeight="1">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="23" t="s">
         <v>14</v>
       </c>
@@ -5122,13 +5161,13 @@
       <c r="AP79" s="25"/>
     </row>
     <row r="80" spans="1:42" ht="12" customHeight="1">
-      <c r="A80" s="55">
+      <c r="A80" s="56">
         <v>5</v>
       </c>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
-      <c r="E80" s="57"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="58"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="17" t="s">
         <v>13</v>
       </c>
@@ -5170,11 +5209,11 @@
       <c r="AP80" s="20"/>
     </row>
     <row r="81" spans="1:42" ht="12" customHeight="1">
-      <c r="A81" s="56"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="56"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
+      <c r="A81" s="57"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
       <c r="F81" s="23" t="s">
         <v>14</v>
       </c>
@@ -5216,13 +5255,13 @@
       <c r="AP81" s="25"/>
     </row>
     <row r="82" spans="1:42" ht="12" customHeight="1">
-      <c r="A82" s="55">
+      <c r="A82" s="56">
         <v>6</v>
       </c>
-      <c r="B82" s="57"/>
-      <c r="C82" s="57"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
       <c r="F82" s="17" t="s">
         <v>13</v>
       </c>
@@ -5264,11 +5303,11 @@
       <c r="AP82" s="20"/>
     </row>
     <row r="83" spans="1:42" ht="12" customHeight="1">
-      <c r="A83" s="56"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
+      <c r="A83" s="57"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
       <c r="F83" s="23" t="s">
         <v>14</v>
       </c>
@@ -5354,13 +5393,13 @@
       <c r="AP84" s="13"/>
     </row>
     <row r="85" spans="1:42" ht="12" customHeight="1">
-      <c r="A85" s="55">
+      <c r="A85" s="56">
         <v>1</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="57"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="57"/>
+      <c r="B85" s="58"/>
+      <c r="C85" s="58"/>
+      <c r="D85" s="58"/>
+      <c r="E85" s="58"/>
       <c r="F85" s="17" t="s">
         <v>13</v>
       </c>
@@ -5402,11 +5441,11 @@
       <c r="AP85" s="20"/>
     </row>
     <row r="86" spans="1:42" ht="12" customHeight="1">
-      <c r="A86" s="56"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
+      <c r="E86" s="57"/>
       <c r="F86" s="23" t="s">
         <v>14</v>
       </c>
@@ -5448,13 +5487,13 @@
       <c r="AP86" s="25"/>
     </row>
     <row r="87" spans="1:42" ht="12" customHeight="1">
-      <c r="A87" s="55">
+      <c r="A87" s="56">
         <v>2</v>
       </c>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="57"/>
+      <c r="B87" s="58"/>
+      <c r="C87" s="58"/>
+      <c r="D87" s="58"/>
+      <c r="E87" s="58"/>
       <c r="F87" s="17" t="s">
         <v>13</v>
       </c>
@@ -5496,11 +5535,11 @@
       <c r="AP87" s="20"/>
     </row>
     <row r="88" spans="1:42" ht="12" customHeight="1">
-      <c r="A88" s="56"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
       <c r="F88" s="23" t="s">
         <v>14</v>
       </c>
@@ -5542,13 +5581,13 @@
       <c r="AP88" s="25"/>
     </row>
     <row r="89" spans="1:42" ht="12" customHeight="1">
-      <c r="A89" s="55">
+      <c r="A89" s="56">
         <v>3</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="17" t="s">
         <v>13</v>
       </c>
@@ -5590,11 +5629,11 @@
       <c r="AP89" s="20"/>
     </row>
     <row r="90" spans="1:42" ht="12" customHeight="1">
-      <c r="A90" s="56"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="57"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="57"/>
       <c r="F90" s="23" t="s">
         <v>14</v>
       </c>
@@ -5636,13 +5675,13 @@
       <c r="AP90" s="25"/>
     </row>
     <row r="91" spans="1:42" ht="12" customHeight="1">
-      <c r="A91" s="55">
+      <c r="A91" s="56">
         <v>4</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
       <c r="F91" s="17" t="s">
         <v>13</v>
       </c>
@@ -5684,11 +5723,11 @@
       <c r="AP91" s="20"/>
     </row>
     <row r="92" spans="1:42" ht="12" customHeight="1">
-      <c r="A92" s="56"/>
-      <c r="B92" s="56"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="57"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
       <c r="F92" s="23" t="s">
         <v>14</v>
       </c>
